--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="463">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Home Rule Charter</t>
   </si>
   <si>
-    <t xml:space="preserve">Elected Officials</t>
+    <t xml:space="preserve">Spider Complete?</t>
   </si>
   <si>
     <t xml:space="preserve">ALEPPO</t>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">1st Township</t>
   </si>
   <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASPINWALL</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
     <t xml:space="preserve">http://www.boroughofavalon.org/</t>
   </si>
   <si>
-    <t xml:space="preserve">{Mayor, Council (9), Tax-Collector, more?}</t>
-  </si>
-  <si>
     <t xml:space="preserve">BALDWIN</t>
   </si>
   <si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.baldwinborough.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{Mayor, Council, More?}</t>
   </si>
   <si>
     <t xml:space="preserve">BELL ACRES</t>
@@ -1530,10 +1527,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -1589,48 +1586,54 @@
       <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,13 +1655,16 @@
       <c r="F5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H5" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>29</v>
@@ -1670,399 +1676,438 @@
         <v>30</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>38</v>
+      <c r="H8" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F15" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="F16" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F17" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F18" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F19" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="F20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="D21" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="F21" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F22" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F23" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="G24" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>13</v>
@@ -2070,59 +2115,59 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F26" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="D27" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F27" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>13</v>
@@ -2130,79 +2175,79 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="D29" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="F29" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="F30" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="F31" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>13</v>
@@ -2210,99 +2255,99 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="F33" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="D34" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="F34" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="F35" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>140</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>13</v>
@@ -2310,297 +2355,297 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="D39" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="0" t="s">
+      <c r="D40" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="F40" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>157</v>
-      </c>
       <c r="F42" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="D43" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>163</v>
-      </c>
       <c r="D45" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>165</v>
-      </c>
       <c r="D46" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="0" t="s">
+      <c r="D48" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>170</v>
-      </c>
       <c r="F48" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>174</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>176</v>
-      </c>
       <c r="D51" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>179</v>
-      </c>
       <c r="F52" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>13</v>
@@ -2608,121 +2653,121 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>185</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>187</v>
-      </c>
       <c r="D56" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="0" t="s">
+      <c r="D57" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>190</v>
-      </c>
       <c r="F57" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="0" t="s">
+      <c r="D59" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>196</v>
-      </c>
       <c r="F59" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="0" t="s">
+      <c r="D60" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>199</v>
-      </c>
       <c r="F60" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>13</v>
@@ -2730,30 +2775,30 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>11</v>
@@ -2764,266 +2809,266 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>206</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>207</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>209</v>
-      </c>
       <c r="D65" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>211</v>
-      </c>
       <c r="D66" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="0" t="s">
+      <c r="D69" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="F69" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="0" t="s">
+      <c r="D70" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>221</v>
-      </c>
       <c r="F70" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>223</v>
-      </c>
       <c r="D71" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>225</v>
-      </c>
       <c r="D72" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" s="0" t="s">
+      <c r="D73" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>228</v>
-      </c>
       <c r="F73" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>233</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="0" t="s">
+      <c r="D76" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>236</v>
-      </c>
       <c r="F76" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>238</v>
-      </c>
       <c r="D77" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>13</v>
@@ -3031,50 +3076,50 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>242</v>
-      </c>
       <c r="D79" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>13</v>
@@ -3082,249 +3127,249 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>250</v>
-      </c>
       <c r="D83" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="0" t="s">
+      <c r="D84" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>253</v>
-      </c>
       <c r="F84" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="0" t="s">
+      <c r="D86" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>258</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>260</v>
-      </c>
       <c r="D87" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D88" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="0" t="s">
-        <v>263</v>
-      </c>
       <c r="F88" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>265</v>
-      </c>
       <c r="D89" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C90" s="0" t="s">
+      <c r="D90" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F90" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>268</v>
-      </c>
       <c r="G90" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>270</v>
-      </c>
       <c r="D91" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>272</v>
-      </c>
       <c r="D92" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>274</v>
-      </c>
       <c r="D93" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>276</v>
-      </c>
       <c r="D94" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>13</v>
@@ -3332,36 +3377,36 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>13</v>
@@ -3369,16 +3414,16 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D98" s="0" t="s">
         <v>284</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>285</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>13</v>
@@ -3386,33 +3431,33 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>287</v>
-      </c>
       <c r="D99" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F100" s="0" t="s">
         <v>13</v>
@@ -3420,67 +3465,67 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>290</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>291</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>293</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>294</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>295</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>13</v>
@@ -3488,33 +3533,33 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>299</v>
-      </c>
       <c r="D105" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D106" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>302</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>13</v>
@@ -3522,33 +3567,33 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="D107" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="D107" s="0" t="s">
-        <v>305</v>
-      </c>
       <c r="F107" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>13</v>
@@ -3556,16 +3601,16 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>13</v>
@@ -3573,33 +3618,33 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>13</v>
@@ -3607,317 +3652,317 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>314</v>
-      </c>
       <c r="D112" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B113" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>316</v>
-      </c>
       <c r="D113" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>318</v>
-      </c>
       <c r="D114" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" s="0" t="s">
+      <c r="D115" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="D115" s="0" t="s">
-        <v>321</v>
-      </c>
       <c r="F115" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>323</v>
-      </c>
       <c r="D116" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B117" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C117" s="0" t="s">
+      <c r="D117" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>326</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>328</v>
-      </c>
       <c r="D118" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B119" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>330</v>
-      </c>
       <c r="D119" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="B120" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" s="0" t="s">
+      <c r="D120" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="F120" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="B122" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>337</v>
-      </c>
       <c r="D122" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>339</v>
-      </c>
       <c r="D123" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="0" t="s">
+      <c r="D124" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="D124" s="0" t="s">
-        <v>342</v>
-      </c>
       <c r="F124" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>344</v>
-      </c>
       <c r="D125" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B126" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>346</v>
-      </c>
       <c r="D126" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B127" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>348</v>
-      </c>
       <c r="D127" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>350</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F129" s="0" t="s">
         <v>13</v>
@@ -3925,39 +3970,39 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130" s="0" t="s">
+      <c r="D130" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="D130" s="0" t="s">
-        <v>355</v>
-      </c>
       <c r="F130" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="B131" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131" s="0" t="s">
+      <c r="D131" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D131" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="F131" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4018,11 +4063,11 @@
   </sheetPr>
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>
@@ -4033,34 +4078,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>360</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>361</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4071,13 +4116,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>368</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>369</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2017</v>
@@ -4086,10 +4131,10 @@
         <v>44561</v>
       </c>
       <c r="H2" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>44100</v>
@@ -4097,13 +4142,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>368</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2019</v>
@@ -4112,18 +4157,18 @@
         <v>45291</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>368</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2017</v>
@@ -4132,18 +4177,18 @@
         <v>44561</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>368</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>44561</v>
@@ -4151,13 +4196,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>368</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>44561</v>
@@ -4165,367 +4210,367 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>378</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>380</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>382</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>383</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>396</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>397</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>400</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>401</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4536,95 +4581,95 @@
         <v>9</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>368</v>
-      </c>
       <c r="E29" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>368</v>
-      </c>
       <c r="E30" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>368</v>
-      </c>
       <c r="E31" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>368</v>
-      </c>
       <c r="E32" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>368</v>
-      </c>
       <c r="E33" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,329 +4677,329 @@
         <v>25</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J52" s="2" t="n">
         <v>44101</v>
@@ -4962,391 +5007,391 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E64" s="0" t="s">
         <v>450</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>451</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E74" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="463">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -1527,10 +1527,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -2028,6 +2028,9 @@
       </c>
       <c r="F21" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,7 +4070,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="464">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://carnegieborough.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
   </si>
   <si>
     <t xml:space="preserve">CASTLE SHANNON</t>
@@ -1527,10 +1530,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -1986,22 +1989,25 @@
       <c r="F19" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="H19" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>20</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>20</v>
@@ -2035,39 +2041,42 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>20</v>
@@ -2075,22 +2084,22 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>37</v>
@@ -2098,19 +2107,19 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>73</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>13</v>
@@ -2118,19 +2127,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>20</v>
@@ -2138,19 +2147,19 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>77</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>20</v>
@@ -2158,19 +2167,19 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>13</v>
@@ -2178,19 +2187,19 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>20</v>
@@ -2198,19 +2207,19 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>20</v>
@@ -2218,39 +2227,39 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>13</v>
@@ -2258,19 +2267,19 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>20</v>
@@ -2278,19 +2287,19 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>20</v>
@@ -2298,19 +2307,19 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>20</v>
@@ -2318,19 +2327,19 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>20</v>
@@ -2338,19 +2347,19 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>13</v>
@@ -2358,16 +2367,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>20</v>
@@ -2375,13 +2384,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>40</v>
@@ -2392,16 +2401,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>20</v>
@@ -2409,47 +2418,47 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>55</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>59</v>
@@ -2460,30 +2469,30 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>18</v>
@@ -2494,13 +2503,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>66</v>
@@ -2511,33 +2520,33 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>20</v>
@@ -2545,13 +2554,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>11</v>
@@ -2562,13 +2571,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>11</v>
@@ -2579,16 +2588,16 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>20</v>
@@ -2599,22 +2608,22 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>37</v>
@@ -2622,30 +2631,30 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>55</v>
@@ -2656,13 +2665,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>11</v>
@@ -2673,13 +2682,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>73</v>
@@ -2690,16 +2699,16 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>20</v>
@@ -2707,36 +2716,36 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>20</v>
@@ -2744,16 +2753,16 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>20</v>
@@ -2761,16 +2770,16 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>13</v>
@@ -2778,30 +2787,30 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>40</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>11</v>
@@ -2812,13 +2821,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>11</v>
@@ -2829,16 +2838,16 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>20</v>
@@ -2846,16 +2855,16 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>20</v>
@@ -2863,30 +2872,30 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>66</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>66</v>
@@ -2900,16 +2909,16 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>20</v>
@@ -2917,16 +2926,16 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>20</v>
@@ -2934,19 +2943,19 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>37</v>
@@ -2954,16 +2963,16 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>20</v>
@@ -2971,16 +2980,16 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>20</v>
@@ -2991,33 +3000,33 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>13</v>
@@ -3028,16 +3037,16 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>20</v>
@@ -3045,16 +3054,16 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>20</v>
@@ -3062,16 +3071,16 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>13</v>
@@ -3079,13 +3088,13 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>59</v>
@@ -3096,33 +3105,33 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>13</v>
@@ -3130,13 +3139,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>18</v>
@@ -3150,16 +3159,16 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F83" s="0" t="s">
         <v>20</v>
@@ -3167,16 +3176,16 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>20</v>
@@ -3184,33 +3193,33 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>40</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>13</v>
@@ -3221,16 +3230,16 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>20</v>
@@ -3238,19 +3247,19 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>37</v>
@@ -3258,16 +3267,16 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>20</v>
@@ -3275,19 +3284,19 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>37</v>
@@ -3295,16 +3304,16 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>20</v>
@@ -3312,16 +3321,16 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>20</v>
@@ -3329,16 +3338,16 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>20</v>
@@ -3346,13 +3355,13 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>59</v>
@@ -3363,16 +3372,16 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>13</v>
@@ -3380,19 +3389,19 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>37</v>
@@ -3400,16 +3409,16 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>13</v>
@@ -3417,16 +3426,16 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>13</v>
@@ -3434,13 +3443,13 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>77</v>
@@ -3451,13 +3460,13 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>73</v>
@@ -3468,13 +3477,13 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>11</v>
@@ -3485,13 +3494,13 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>11</v>
@@ -3502,13 +3511,13 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>11</v>
@@ -3519,16 +3528,16 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>13</v>
@@ -3536,13 +3545,13 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>18</v>
@@ -3553,16 +3562,16 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>13</v>
@@ -3570,33 +3579,33 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>13</v>
@@ -3604,16 +3613,16 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>13</v>
@@ -3621,16 +3630,16 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>20</v>
@@ -3638,16 +3647,16 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>13</v>
@@ -3655,13 +3664,13 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>59</v>
@@ -3672,13 +3681,13 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>55</v>
@@ -3689,16 +3698,16 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>20</v>
@@ -3706,16 +3715,16 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F115" s="0" t="s">
         <v>20</v>
@@ -3723,13 +3732,13 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>59</v>
@@ -3740,16 +3749,16 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>13</v>
@@ -3760,16 +3769,16 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>20</v>
@@ -3777,16 +3786,16 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>20</v>
@@ -3794,19 +3803,19 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>20</v>
@@ -3814,19 +3823,19 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>37</v>
@@ -3834,16 +3843,16 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>20</v>
@@ -3851,16 +3860,16 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>20</v>
@@ -3868,16 +3877,16 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>20</v>
@@ -3885,16 +3894,16 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>20</v>
@@ -3902,16 +3911,16 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>20</v>
@@ -3919,16 +3928,16 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>20</v>
@@ -3936,13 +3945,13 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>27</v>
@@ -3956,13 +3965,13 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>59</v>
@@ -3973,16 +3982,16 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>20</v>
@@ -3990,19 +3999,19 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>20</v>
@@ -4070,7 +4079,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>
@@ -4081,34 +4090,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4119,13 +4128,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2017</v>
@@ -4134,10 +4143,10 @@
         <v>44561</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>44100</v>
@@ -4145,13 +4154,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2019</v>
@@ -4160,18 +4169,18 @@
         <v>45291</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2017</v>
@@ -4180,18 +4189,18 @@
         <v>44561</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>44561</v>
@@ -4199,13 +4208,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>44561</v>
@@ -4213,19 +4222,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4236,172 +4245,172 @@
         <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4412,168 +4421,168 @@
         <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,95 +4593,95 @@
         <v>9</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,161 +4692,161 @@
         <v>16</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,161 +4857,161 @@
         <v>16</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J52" s="2" t="n">
         <v>44101</v>
@@ -5016,226 +5025,226 @@
         <v>16</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,155 +5255,155 @@
         <v>16</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="464">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -260,40 +260,40 @@
     <t xml:space="preserve">http://carnegieborough.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">CASTLE SHANNON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castle Shannon Borough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keystone Oaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://borough.castle-shannon.pa.us/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHALFANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalfant Borough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://chalfantborough-pa.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHESWICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheswick Borough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allegheny Valley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cheswick.us/</t>
+  </si>
+  <si>
     <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTLE SHANNON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castle Shannon Borough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keystone Oaks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://borough.castle-shannon.pa.us/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHALFANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chalfant Borough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://chalfantborough-pa.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHESWICK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheswick Borough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allegheny Valley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cheswick.us/</t>
   </si>
   <si>
     <t xml:space="preserve">CHURCHILL</t>
@@ -1530,10 +1530,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -1990,24 +1990,24 @@
         <v>20</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>20</v>
@@ -2018,19 +2018,19 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>85</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>20</v>
@@ -2041,25 +2041,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,6 +2081,9 @@
       <c r="F23" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="H23" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -2196,7 +2199,7 @@
         <v>115</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>116</v>
@@ -2597,7 +2600,7 @@
         <v>176</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>20</v>
@@ -2640,7 +2643,7 @@
         <v>181</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>154</v>
@@ -3622,7 +3625,7 @@
         <v>309</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>13</v>
@@ -3639,7 +3642,7 @@
         <v>310</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>20</v>
@@ -4079,7 +4082,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="464">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -1530,10 +1530,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -2106,6 +2106,9 @@
       </c>
       <c r="G24" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4082,7 +4085,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="464">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -1528,12 +1528,12 @@
   <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -2129,6 +2129,9 @@
       </c>
       <c r="F25" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4085,7 +4088,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="467">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -464,12 +464,18 @@
     <t xml:space="preserve">Elizabeth Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">https://elizabethpa.net/</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMSWORTH</t>
   </si>
   <si>
     <t xml:space="preserve">Emsworth Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">http://emsworthborough.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">ETNA</t>
   </si>
   <si>
@@ -477,6 +483,9 @@
   </si>
   <si>
     <t xml:space="preserve">Shaler Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.etnaborough.org/</t>
   </si>
   <si>
     <t xml:space="preserve">FAWN</t>
@@ -1528,12 +1537,12 @@
   <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -2153,6 +2162,9 @@
       <c r="F26" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="H26" s="0" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -2387,39 +2399,48 @@
       <c r="D38" s="0" t="s">
         <v>144</v>
       </c>
+      <c r="E38" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="F38" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F39" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>20</v>
@@ -2427,47 +2448,47 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>55</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D42" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>59</v>
@@ -2478,30 +2499,30 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>144</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>18</v>
@@ -2512,13 +2533,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>66</v>
@@ -2529,33 +2550,33 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>127</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>20</v>
@@ -2563,13 +2584,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>11</v>
@@ -2580,13 +2601,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>11</v>
@@ -2597,13 +2618,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>81</v>
@@ -2617,22 +2638,22 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>37</v>
@@ -2640,30 +2661,30 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>88</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>55</v>
@@ -2674,13 +2695,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>11</v>
@@ -2691,13 +2712,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>73</v>
@@ -2708,16 +2729,16 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>20</v>
@@ -2725,36 +2746,36 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>20</v>
@@ -2762,16 +2783,16 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>20</v>
@@ -2779,16 +2800,16 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>13</v>
@@ -2796,30 +2817,30 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>40</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>11</v>
@@ -2830,13 +2851,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>11</v>
@@ -2847,16 +2868,16 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>20</v>
@@ -2864,16 +2885,16 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>20</v>
@@ -2881,30 +2902,30 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>66</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>66</v>
@@ -2918,16 +2939,16 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>20</v>
@@ -2935,16 +2956,16 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>20</v>
@@ -2952,13 +2973,13 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>119</v>
@@ -2972,16 +2993,16 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>20</v>
@@ -2989,16 +3010,16 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>20</v>
@@ -3009,33 +3030,33 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>112</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>13</v>
@@ -3046,16 +3067,16 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>20</v>
@@ -3063,16 +3084,16 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>20</v>
@@ -3080,13 +3101,13 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>105</v>
@@ -3097,13 +3118,13 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>59</v>
@@ -3114,30 +3135,30 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D80" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F80" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>131</v>
@@ -3148,13 +3169,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>18</v>
@@ -3168,16 +3189,16 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F83" s="0" t="s">
         <v>20</v>
@@ -3185,16 +3206,16 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>20</v>
@@ -3202,33 +3223,33 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>40</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>13</v>
@@ -3239,16 +3260,16 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>20</v>
@@ -3256,19 +3277,19 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>37</v>
@@ -3276,16 +3297,16 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>20</v>
@@ -3293,19 +3314,19 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>95</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>37</v>
@@ -3313,16 +3334,16 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>20</v>
@@ -3330,16 +3351,16 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>20</v>
@@ -3347,16 +3368,16 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>20</v>
@@ -3364,13 +3385,13 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>59</v>
@@ -3381,16 +3402,16 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>13</v>
@@ -3398,19 +3419,19 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>37</v>
@@ -3418,16 +3439,16 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>13</v>
@@ -3435,16 +3456,16 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>13</v>
@@ -3452,13 +3473,13 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>77</v>
@@ -3469,13 +3490,13 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>73</v>
@@ -3486,13 +3507,13 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>11</v>
@@ -3503,13 +3524,13 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>11</v>
@@ -3520,13 +3541,13 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>11</v>
@@ -3537,16 +3558,16 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>13</v>
@@ -3554,13 +3575,13 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>18</v>
@@ -3571,16 +3592,16 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>13</v>
@@ -3588,30 +3609,30 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>119</v>
@@ -3622,13 +3643,13 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>88</v>
@@ -3639,13 +3660,13 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>88</v>
@@ -3656,16 +3677,16 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>13</v>
@@ -3673,13 +3694,13 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>59</v>
@@ -3690,13 +3711,13 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>55</v>
@@ -3707,16 +3728,16 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>20</v>
@@ -3724,16 +3745,16 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F115" s="0" t="s">
         <v>20</v>
@@ -3741,13 +3762,13 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>59</v>
@@ -3758,16 +3779,16 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>13</v>
@@ -3778,16 +3799,16 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>20</v>
@@ -3795,13 +3816,13 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>119</v>
@@ -3812,19 +3833,19 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>131</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>20</v>
@@ -3832,19 +3853,19 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>127</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>37</v>
@@ -3852,16 +3873,16 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>20</v>
@@ -3869,16 +3890,16 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>20</v>
@@ -3886,16 +3907,16 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>20</v>
@@ -3903,16 +3924,16 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>20</v>
@@ -3920,16 +3941,16 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D126" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>342</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>20</v>
@@ -3937,13 +3958,13 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>119</v>
@@ -3954,13 +3975,13 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>27</v>
@@ -3974,13 +3995,13 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>59</v>
@@ -3991,16 +4012,16 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>20</v>
@@ -4008,19 +4029,19 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>131</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>20</v>
@@ -4064,8 +4085,11 @@
     <hyperlink ref="E35" r:id="rId34" display="http://edgewood.pgh.pa.us/"/>
     <hyperlink ref="E36" r:id="rId35" display="https://edgeworthborough.org/"/>
     <hyperlink ref="E37" r:id="rId36" display="http://elizabethtownshippa.com/"/>
-    <hyperlink ref="E120" r:id="rId37" display="http://www.wallborough.com/"/>
-    <hyperlink ref="E131" r:id="rId38" display="http://www.wilmerdingboro.com/"/>
+    <hyperlink ref="E38" r:id="rId37" display="https://elizabethpa.net/"/>
+    <hyperlink ref="E39" r:id="rId38" display="http://emsworthborough.com/"/>
+    <hyperlink ref="E40" r:id="rId39" display="http://www.etnaborough.org/"/>
+    <hyperlink ref="E120" r:id="rId40" display="http://www.wallborough.com/"/>
+    <hyperlink ref="E131" r:id="rId41" display="http://www.wilmerdingboro.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4088,7 +4112,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>
@@ -4099,34 +4123,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4137,13 +4161,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2017</v>
@@ -4152,10 +4176,10 @@
         <v>44561</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>44100</v>
@@ -4163,13 +4187,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2019</v>
@@ -4178,18 +4202,18 @@
         <v>45291</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2017</v>
@@ -4198,18 +4222,18 @@
         <v>44561</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>44561</v>
@@ -4217,13 +4241,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>44561</v>
@@ -4231,19 +4255,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,172 +4278,172 @@
         <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,168 +4454,168 @@
         <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4602,95 +4626,95 @@
         <v>9</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4701,161 +4725,161 @@
         <v>16</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4866,161 +4890,161 @@
         <v>16</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="J52" s="2" t="n">
         <v>44101</v>
@@ -5034,226 +5058,226 @@
         <v>16</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5264,155 +5288,155 @@
         <v>16</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="481">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -494,6 +494,9 @@
     <t xml:space="preserve">Fawn Township</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.fawntownship.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">2nd Township</t>
   </si>
   <si>
@@ -506,12 +509,18 @@
     <t xml:space="preserve">West Allegheny</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.findlaytwp.org/</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOREST HILLS</t>
   </si>
   <si>
     <t xml:space="preserve">Forest Hills Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">https://foresthillspa.org/</t>
+  </si>
+  <si>
     <t xml:space="preserve">FORWARD</t>
   </si>
   <si>
@@ -524,18 +533,27 @@
     <t xml:space="preserve">Fox Chapel Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.fox-chapel.pa.us/</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRANKLIN PARK</t>
   </si>
   <si>
     <t xml:space="preserve">Franklin Park Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">https://franklinparkborough.us/</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRAZER</t>
   </si>
   <si>
     <t xml:space="preserve">Frazer Township</t>
   </si>
   <si>
+    <t xml:space="preserve">http://frazertownship.net/</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLASSPORT</t>
   </si>
   <si>
@@ -545,24 +563,36 @@
     <t xml:space="preserve">South Allegheny</t>
   </si>
   <si>
+    <t xml:space="preserve">https://glassportborough.net/</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLEN OSBORNE</t>
   </si>
   <si>
     <t xml:space="preserve">Glen Osborne Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">https://glenosborneborough.org/</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLENFIELD</t>
   </si>
   <si>
     <t xml:space="preserve">Glenfield Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">http://glenfieldborough.org/</t>
+  </si>
+  <si>
     <t xml:space="preserve">GREEN TREE</t>
   </si>
   <si>
     <t xml:space="preserve">Green Tree Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.greentreeboro.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">HAMPTON</t>
   </si>
   <si>
@@ -578,22 +608,34 @@
     <t xml:space="preserve">Harmar Township</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.harmartownship-pa.gov/</t>
+  </si>
+  <si>
     <t xml:space="preserve">HARRISON</t>
   </si>
   <si>
     <t xml:space="preserve">Harrison Township</t>
   </si>
   <si>
+    <t xml:space="preserve">http://harrisontwp.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">HAYSVILLE</t>
   </si>
   <si>
     <t xml:space="preserve">Haysville Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.haysvilleborough.org/</t>
+  </si>
+  <si>
     <t xml:space="preserve">HEIDELBERG</t>
   </si>
   <si>
     <t xml:space="preserve">Heidelberg Borough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://heidelbergborough.org/</t>
   </si>
   <si>
     <t xml:space="preserve">HOMESTEAD</t>
@@ -1537,12 +1579,12 @@
   <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -2185,6 +2227,9 @@
       <c r="F27" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="H27" s="0" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -2459,124 +2504,145 @@
       <c r="D41" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="E41" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="F41" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="E43" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="F43" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>144</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="E45" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="F45" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>66</v>
       </c>
+      <c r="E46" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="F46" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>127</v>
       </c>
+      <c r="E47" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="F47" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>20</v>
@@ -2584,51 +2650,60 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="E49" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="F49" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="E50" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="F50" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="E51" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="F51" s="0" t="s">
         <v>20</v>
       </c>
@@ -2638,22 +2713,22 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>37</v>
@@ -2661,84 +2736,96 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>88</v>
       </c>
+      <c r="E53" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="F53" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="E54" s="0" t="s">
+        <v>198</v>
+      </c>
       <c r="F54" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="E55" s="0" t="s">
+        <v>201</v>
+      </c>
       <c r="F55" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>73</v>
       </c>
+      <c r="E56" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F56" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>20</v>
@@ -2746,36 +2833,36 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>18</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>20</v>
@@ -2783,16 +2870,16 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>20</v>
@@ -2800,16 +2887,16 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>13</v>
@@ -2817,30 +2904,30 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>40</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>11</v>
@@ -2851,13 +2938,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>11</v>
@@ -2868,16 +2955,16 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>20</v>
@@ -2885,16 +2972,16 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>20</v>
@@ -2902,30 +2989,30 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>66</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>66</v>
@@ -2939,16 +3026,16 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>20</v>
@@ -2956,16 +3043,16 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>20</v>
@@ -2973,13 +3060,13 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>119</v>
@@ -2993,13 +3080,13 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>153</v>
@@ -3010,16 +3097,16 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>20</v>
@@ -3030,33 +3117,33 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>112</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>13</v>
@@ -3067,16 +3154,16 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>20</v>
@@ -3084,16 +3171,16 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>20</v>
@@ -3101,13 +3188,13 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>105</v>
@@ -3118,13 +3205,13 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>59</v>
@@ -3135,30 +3222,30 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>131</v>
@@ -3169,13 +3256,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>18</v>
@@ -3189,16 +3276,16 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F83" s="0" t="s">
         <v>20</v>
@@ -3206,16 +3293,16 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>20</v>
@@ -3223,33 +3310,33 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>40</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>13</v>
@@ -3260,16 +3347,16 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>20</v>
@@ -3277,19 +3364,19 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>37</v>
@@ -3297,16 +3384,16 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>20</v>
@@ -3314,19 +3401,19 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>95</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>37</v>
@@ -3334,16 +3421,16 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>20</v>
@@ -3351,16 +3438,16 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>20</v>
@@ -3368,16 +3455,16 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>20</v>
@@ -3385,13 +3472,13 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>59</v>
@@ -3402,13 +3489,13 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>153</v>
@@ -3419,19 +3506,19 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>37</v>
@@ -3439,16 +3526,16 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>13</v>
@@ -3456,16 +3543,16 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>13</v>
@@ -3473,13 +3560,13 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>77</v>
@@ -3490,13 +3577,13 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>73</v>
@@ -3507,13 +3594,13 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>11</v>
@@ -3524,13 +3611,13 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>11</v>
@@ -3541,13 +3628,13 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>11</v>
@@ -3558,13 +3645,13 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>153</v>
@@ -3575,13 +3662,13 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>18</v>
@@ -3592,16 +3679,16 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>13</v>
@@ -3609,30 +3696,30 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>119</v>
@@ -3643,13 +3730,13 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>88</v>
@@ -3660,13 +3747,13 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>88</v>
@@ -3677,16 +3764,16 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>13</v>
@@ -3694,13 +3781,13 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>59</v>
@@ -3711,13 +3798,13 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>55</v>
@@ -3728,16 +3815,16 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>20</v>
@@ -3745,16 +3832,16 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="F115" s="0" t="s">
         <v>20</v>
@@ -3762,13 +3849,13 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>59</v>
@@ -3779,16 +3866,16 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>13</v>
@@ -3799,16 +3886,16 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>20</v>
@@ -3816,13 +3903,13 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>119</v>
@@ -3833,19 +3920,19 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>131</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>20</v>
@@ -3853,19 +3940,19 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>127</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>37</v>
@@ -3873,16 +3960,16 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>20</v>
@@ -3890,16 +3977,16 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>20</v>
@@ -3907,16 +3994,16 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>20</v>
@@ -3924,16 +4011,16 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>20</v>
@@ -3941,16 +4028,16 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>20</v>
@@ -3958,13 +4045,13 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>119</v>
@@ -3975,13 +4062,13 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>27</v>
@@ -3995,13 +4082,13 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>59</v>
@@ -4012,16 +4099,16 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>20</v>
@@ -4029,19 +4116,19 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>131</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>20</v>
@@ -4088,8 +4175,20 @@
     <hyperlink ref="E38" r:id="rId37" display="https://elizabethpa.net/"/>
     <hyperlink ref="E39" r:id="rId38" display="http://emsworthborough.com/"/>
     <hyperlink ref="E40" r:id="rId39" display="http://www.etnaborough.org/"/>
-    <hyperlink ref="E120" r:id="rId40" display="http://www.wallborough.com/"/>
-    <hyperlink ref="E131" r:id="rId41" display="http://www.wilmerdingboro.com/"/>
+    <hyperlink ref="E41" r:id="rId40" display="https://www.fawntownship.com/"/>
+    <hyperlink ref="E42" r:id="rId41" display="http://www.findlaytwp.org/"/>
+    <hyperlink ref="E43" r:id="rId42" display="https://foresthillspa.org/"/>
+    <hyperlink ref="E45" r:id="rId43" display="https://www.fox-chapel.pa.us/"/>
+    <hyperlink ref="E46" r:id="rId44" display="https://franklinparkborough.us/"/>
+    <hyperlink ref="E47" r:id="rId45" display="http://frazertownship.net/"/>
+    <hyperlink ref="E48" r:id="rId46" display="https://glassportborough.net/"/>
+    <hyperlink ref="E49" r:id="rId47" display="https://glenosborneborough.org/"/>
+    <hyperlink ref="E50" r:id="rId48" display="http://glenfieldborough.org/"/>
+    <hyperlink ref="E51" r:id="rId49" display="http://www.greentreeboro.com/"/>
+    <hyperlink ref="E53" r:id="rId50" display="http://www.harmartownship-pa.gov/"/>
+    <hyperlink ref="E56" r:id="rId51" display="http://heidelbergborough.org/"/>
+    <hyperlink ref="E120" r:id="rId52" display="http://www.wallborough.com/"/>
+    <hyperlink ref="E131" r:id="rId53" display="http://www.wilmerdingboro.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4112,7 +4211,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>
@@ -4123,34 +4222,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4161,13 +4260,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2017</v>
@@ -4176,10 +4275,10 @@
         <v>44561</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>44100</v>
@@ -4187,13 +4286,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2019</v>
@@ -4202,18 +4301,18 @@
         <v>45291</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2017</v>
@@ -4222,18 +4321,18 @@
         <v>44561</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>44561</v>
@@ -4241,13 +4340,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>44561</v>
@@ -4255,19 +4354,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,172 +4377,172 @@
         <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E11" s="0" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E13" s="0" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E14" s="0" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,168 +4553,168 @@
         <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4626,95 +4725,95 @@
         <v>9</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,161 +4824,161 @@
         <v>16</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E36" s="0" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E37" s="0" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D38" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E38" s="0" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E39" s="0" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D40" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E40" s="0" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E41" s="0" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E42" s="0" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4890,161 +4989,161 @@
         <v>16</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E45" s="0" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E46" s="0" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E47" s="0" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D48" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E48" s="0" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D49" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E49" s="0" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E50" s="0" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D51" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E51" s="0" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="J52" s="2" t="n">
         <v>44101</v>
@@ -5058,226 +5157,226 @@
         <v>16</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,155 +5387,155 @@
         <v>16</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E67" s="0" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E68" s="0" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D69" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E69" s="0" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D70" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E70" s="0" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D71" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E71" s="0" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E72" s="0" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="E73" s="0" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="487">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -647,12 +647,18 @@
     <t xml:space="preserve">Steel Valley</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.homesteadborough.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">INDIANA</t>
   </si>
   <si>
     <t xml:space="preserve">Indiana Township</t>
   </si>
   <si>
+    <t xml:space="preserve">https://indianatownship.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optional Plan</t>
   </si>
   <si>
@@ -665,6 +671,9 @@
     <t xml:space="preserve">Montour</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.ingramborough.org/</t>
+  </si>
+  <si>
     <t xml:space="preserve">JEFFERSON HILLS</t>
   </si>
   <si>
@@ -674,16 +683,25 @@
     <t xml:space="preserve">West Jefferson Hills</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.jeffersonhillsboro.org/</t>
+  </si>
+  <si>
     <t xml:space="preserve">KENNEDY</t>
   </si>
   <si>
     <t xml:space="preserve">Kennedy Township</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.kennedytwp.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">KILBUCK</t>
   </si>
   <si>
     <t xml:space="preserve">Kilbuck Township</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kilbucktownship.org/</t>
   </si>
   <si>
     <t xml:space="preserve">LEET</t>
@@ -1579,12 +1597,12 @@
   <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -2250,6 +2268,9 @@
       <c r="F28" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="H28" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -2827,42 +2848,51 @@
       <c r="D57" s="0" t="s">
         <v>207</v>
       </c>
+      <c r="E57" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="F57" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="E58" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="F58" s="0" t="s">
         <v>158</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>20</v>
@@ -2870,16 +2900,19 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>20</v>
@@ -2887,16 +2920,19 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>13</v>
@@ -2904,30 +2940,33 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="E62" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="F62" s="0" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>11</v>
@@ -2938,13 +2977,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>11</v>
@@ -2955,13 +2994,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>179</v>
@@ -2972,13 +3011,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>179</v>
@@ -2989,13 +3028,13 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>66</v>
@@ -3006,13 +3045,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>66</v>
@@ -3026,16 +3065,16 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>20</v>
@@ -3043,16 +3082,16 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>20</v>
@@ -3060,13 +3099,13 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>119</v>
@@ -3080,13 +3119,13 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>153</v>
@@ -3097,16 +3136,16 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>20</v>
@@ -3117,13 +3156,13 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>112</v>
@@ -3134,16 +3173,16 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>13</v>
@@ -3154,16 +3193,16 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>20</v>
@@ -3171,13 +3210,13 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>207</v>
@@ -3188,13 +3227,13 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>105</v>
@@ -3205,13 +3244,13 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>59</v>
@@ -3222,13 +3261,13 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>161</v>
@@ -3239,13 +3278,13 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>131</v>
@@ -3256,13 +3295,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>18</v>
@@ -3276,13 +3315,13 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>161</v>
@@ -3293,16 +3332,16 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>20</v>
@@ -3310,13 +3349,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>40</v>
@@ -3327,16 +3366,16 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>13</v>
@@ -3347,16 +3386,16 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>20</v>
@@ -3364,16 +3403,16 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>158</v>
@@ -3384,16 +3423,16 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>20</v>
@@ -3401,19 +3440,19 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>95</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>37</v>
@@ -3421,16 +3460,16 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>20</v>
@@ -3438,16 +3477,16 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>20</v>
@@ -3455,13 +3494,13 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>179</v>
@@ -3472,13 +3511,13 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>59</v>
@@ -3489,13 +3528,13 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>153</v>
@@ -3506,16 +3545,16 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>158</v>
@@ -3526,16 +3565,16 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>13</v>
@@ -3543,16 +3582,16 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>13</v>
@@ -3560,13 +3599,13 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>77</v>
@@ -3577,13 +3616,13 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>73</v>
@@ -3594,13 +3633,13 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>11</v>
@@ -3611,13 +3650,13 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>11</v>
@@ -3628,13 +3667,13 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>11</v>
@@ -3645,13 +3684,13 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>153</v>
@@ -3662,13 +3701,13 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>18</v>
@@ -3679,16 +3718,16 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>13</v>
@@ -3696,16 +3735,16 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>158</v>
@@ -3713,13 +3752,13 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>119</v>
@@ -3730,13 +3769,13 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>88</v>
@@ -3747,13 +3786,13 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>88</v>
@@ -3764,16 +3803,16 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>13</v>
@@ -3781,13 +3820,13 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>59</v>
@@ -3798,13 +3837,13 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>55</v>
@@ -3815,16 +3854,16 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>20</v>
@@ -3832,16 +3871,16 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F115" s="0" t="s">
         <v>20</v>
@@ -3849,13 +3888,13 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>59</v>
@@ -3866,16 +3905,16 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>13</v>
@@ -3886,16 +3925,16 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>20</v>
@@ -3903,13 +3942,13 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>119</v>
@@ -3920,19 +3959,19 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>131</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>20</v>
@@ -3940,13 +3979,13 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>127</v>
@@ -3960,16 +3999,16 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>20</v>
@@ -3977,13 +4016,13 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>207</v>
@@ -3994,16 +4033,16 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>20</v>
@@ -4011,16 +4050,16 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>20</v>
@@ -4028,16 +4067,16 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>20</v>
@@ -4045,13 +4084,13 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>119</v>
@@ -4062,13 +4101,13 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>27</v>
@@ -4082,13 +4121,13 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>59</v>
@@ -4099,16 +4138,16 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>20</v>
@@ -4116,19 +4155,19 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>131</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>20</v>
@@ -4187,8 +4226,14 @@
     <hyperlink ref="E51" r:id="rId49" display="http://www.greentreeboro.com/"/>
     <hyperlink ref="E53" r:id="rId50" display="http://www.harmartownship-pa.gov/"/>
     <hyperlink ref="E56" r:id="rId51" display="http://heidelbergborough.org/"/>
-    <hyperlink ref="E120" r:id="rId52" display="http://www.wallborough.com/"/>
-    <hyperlink ref="E131" r:id="rId53" display="http://www.wilmerdingboro.com/"/>
+    <hyperlink ref="E57" r:id="rId52" display="http://www.homesteadborough.com/"/>
+    <hyperlink ref="E58" r:id="rId53" display="https://indianatownship.com/"/>
+    <hyperlink ref="E59" r:id="rId54" display="https://www.ingramborough.org/"/>
+    <hyperlink ref="E60" r:id="rId55" display="https://www.jeffersonhillsboro.org/"/>
+    <hyperlink ref="E61" r:id="rId56" display="http://www.kennedytwp.com/"/>
+    <hyperlink ref="E62" r:id="rId57" display="https://www.kilbucktownship.org/"/>
+    <hyperlink ref="E120" r:id="rId58" display="http://www.wallborough.com/"/>
+    <hyperlink ref="E131" r:id="rId59" display="http://www.wilmerdingboro.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4211,7 +4256,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>
@@ -4222,34 +4267,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4260,13 +4305,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2017</v>
@@ -4275,10 +4320,10 @@
         <v>44561</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>44100</v>
@@ -4286,13 +4331,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2019</v>
@@ -4301,18 +4346,18 @@
         <v>45291</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2017</v>
@@ -4321,18 +4366,18 @@
         <v>44561</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>44561</v>
@@ -4340,13 +4385,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>44561</v>
@@ -4354,19 +4399,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4377,172 +4422,172 @@
         <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4553,168 +4598,168 @@
         <v>16</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,95 +4770,95 @@
         <v>9</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,161 +4869,161 @@
         <v>16</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4989,161 +5034,161 @@
         <v>16</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="J52" s="2" t="n">
         <v>44101</v>
@@ -5157,226 +5202,226 @@
         <v>16</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5387,155 +5432,155 @@
         <v>16</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="487">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -1597,20 +1597,20 @@
   <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,6 +3456,9 @@
       </c>
       <c r="G90" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,7 +4259,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -8,8 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="A-C" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Spider completion" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Population" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="A-C (pre-Scrapy)" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="681">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -47,6 +48,9 @@
     <t xml:space="preserve">Spider Complete?</t>
   </si>
   <si>
+    <t xml:space="preserve">Spider name</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALEPPO</t>
   </si>
   <si>
@@ -68,6 +72,9 @@
     <t xml:space="preserve">YES</t>
   </si>
   <si>
+    <t xml:space="preserve">aleppo_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASPINWALL</t>
   </si>
   <si>
@@ -86,6 +93,9 @@
     <t xml:space="preserve">Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">aspinwall_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">AVALON</t>
   </si>
   <si>
@@ -98,6 +108,9 @@
     <t xml:space="preserve">http://www.boroughofavalon.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">avalon_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">BALDWIN</t>
   </si>
   <si>
@@ -110,12 +123,18 @@
     <t xml:space="preserve">https://baldwintownship.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">baldwin_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baldwin Borough</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.baldwinborough.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">baldwin_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">BELL ACRES</t>
   </si>
   <si>
@@ -125,6 +144,9 @@
     <t xml:space="preserve">http://bellacresborough.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">bell_acres_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">BELLEVUE</t>
   </si>
   <si>
@@ -137,6 +159,9 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
+    <t xml:space="preserve">bellevue_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEN AVON</t>
   </si>
   <si>
@@ -149,6 +174,9 @@
     <t xml:space="preserve">https://benavon.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">ben_avon_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEN AVON HEIGHTS</t>
   </si>
   <si>
@@ -158,6 +186,9 @@
     <t xml:space="preserve">http://www.benavonheightsborough.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">ben_avon_heights_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">BETHEL PARK</t>
   </si>
   <si>
@@ -173,6 +204,9 @@
     <t xml:space="preserve">https://bethelpark.net/</t>
   </si>
   <si>
+    <t xml:space="preserve">bethel_park_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLAWNOX</t>
   </si>
   <si>
@@ -182,6 +216,9 @@
     <t xml:space="preserve">https://www.blawnox.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">blawnox_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRACKENRIDGE</t>
   </si>
   <si>
@@ -194,6 +231,9 @@
     <t xml:space="preserve">http://brackenridgeboro.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">brackenridge_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRADDOCK</t>
   </si>
   <si>
@@ -206,6 +246,9 @@
     <t xml:space="preserve">https://braddockborough.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">braddock_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRADDOCK HILLS</t>
   </si>
   <si>
@@ -215,6 +258,9 @@
     <t xml:space="preserve">https://www.braddockhillspa.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">braddock_hills_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRADFORD WOODS</t>
   </si>
   <si>
@@ -227,6 +273,9 @@
     <t xml:space="preserve">https://www.bradfordwoodspa.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">bradford_woods_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRENTWOOD</t>
   </si>
   <si>
@@ -236,6 +285,9 @@
     <t xml:space="preserve">https://www.brentwoodboro.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">brentwood_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRIDGEVILLE</t>
   </si>
   <si>
@@ -248,6 +300,9 @@
     <t xml:space="preserve">https://bridgevilleboro.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">bridgeville_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARNEGIE</t>
   </si>
   <si>
@@ -260,6 +315,9 @@
     <t xml:space="preserve">http://carnegieborough.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">carnegie_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">CASTLE SHANNON</t>
   </si>
   <si>
@@ -272,6 +330,9 @@
     <t xml:space="preserve">https://borough.castle-shannon.pa.us/</t>
   </si>
   <si>
+    <t xml:space="preserve">castle_shannon_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHALFANT</t>
   </si>
   <si>
@@ -281,6 +342,12 @@
     <t xml:space="preserve">http://chalfantborough-pa.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">BROKEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chalfant_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHESWICK</t>
   </si>
   <si>
@@ -296,6 +363,9 @@
     <t xml:space="preserve">NO</t>
   </si>
   <si>
+    <t xml:space="preserve">cheswick_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHURCHILL</t>
   </si>
   <si>
@@ -305,6 +375,9 @@
     <t xml:space="preserve">http://www.churchillborough.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">churchill_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLAIRTON</t>
   </si>
   <si>
@@ -323,6 +396,9 @@
     <t xml:space="preserve">3rd City</t>
   </si>
   <si>
+    <t xml:space="preserve">clairton_c</t>
+  </si>
+  <si>
     <t xml:space="preserve">COLLIER</t>
   </si>
   <si>
@@ -332,6 +408,9 @@
     <t xml:space="preserve">https://www.colliertownship.net/</t>
   </si>
   <si>
+    <t xml:space="preserve">collier_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">CORAOPOLIS</t>
   </si>
   <si>
@@ -344,6 +423,9 @@
     <t xml:space="preserve">http://coraopolispa.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">coraopolis_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRAFTON</t>
   </si>
   <si>
@@ -353,6 +435,9 @@
     <t xml:space="preserve">https://www.craftonborough.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">crafton_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRESCENT</t>
   </si>
   <si>
@@ -365,6 +450,9 @@
     <t xml:space="preserve">http://crescenttownship.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">crescent_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">DORMONT</t>
   </si>
   <si>
@@ -374,6 +462,9 @@
     <t xml:space="preserve">http://boro.dormont.pa.us/</t>
   </si>
   <si>
+    <t xml:space="preserve">dormont_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">DRAVOSBURG</t>
   </si>
   <si>
@@ -386,6 +477,9 @@
     <t xml:space="preserve">https://www.dravosburg.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">dravosburg_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">DUQUESNE</t>
   </si>
   <si>
@@ -398,6 +492,9 @@
     <t xml:space="preserve">http://www.duquesnepa.us/</t>
   </si>
   <si>
+    <t xml:space="preserve">duquesne_c</t>
+  </si>
+  <si>
     <t xml:space="preserve">EAST DEER</t>
   </si>
   <si>
@@ -410,6 +507,9 @@
     <t xml:space="preserve">http://eastdeertownship.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">east_deer_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">EAST MCKEESPORT</t>
   </si>
   <si>
@@ -422,6 +522,9 @@
     <t xml:space="preserve">http://eastmckeesportboro.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">east_mckeesport_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">EAST PITTSBURGH</t>
   </si>
   <si>
@@ -431,6 +534,9 @@
     <t xml:space="preserve">http://eastpittsburghboro.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">east_pittsburgh_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">EDGEWOOD</t>
   </si>
   <si>
@@ -440,6 +546,9 @@
     <t xml:space="preserve">http://edgewood.pgh.pa.us/</t>
   </si>
   <si>
+    <t xml:space="preserve">edgewood_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">EDGEWORTH</t>
   </si>
   <si>
@@ -449,6 +558,9 @@
     <t xml:space="preserve">https://edgeworthborough.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">edgeworth_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">ELIZABETH</t>
   </si>
   <si>
@@ -461,12 +573,18 @@
     <t xml:space="preserve">http://elizabethtownshippa.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">elizabeth_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elizabeth Borough</t>
   </si>
   <si>
     <t xml:space="preserve">https://elizabethpa.net/</t>
   </si>
   <si>
+    <t xml:space="preserve">elizabeth_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMSWORTH</t>
   </si>
   <si>
@@ -476,6 +594,9 @@
     <t xml:space="preserve">http://emsworthborough.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">emsworth_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">ETNA</t>
   </si>
   <si>
@@ -488,6 +609,9 @@
     <t xml:space="preserve">http://www.etnaborough.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">etna_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">FAWN</t>
   </si>
   <si>
@@ -500,6 +624,9 @@
     <t xml:space="preserve">2nd Township</t>
   </si>
   <si>
+    <t xml:space="preserve">fawn_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">FINDLAY</t>
   </si>
   <si>
@@ -512,6 +639,9 @@
     <t xml:space="preserve">http://www.findlaytwp.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">findlay_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOREST HILLS</t>
   </si>
   <si>
@@ -521,12 +651,18 @@
     <t xml:space="preserve">https://foresthillspa.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">forest_hills_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">FORWARD</t>
   </si>
   <si>
     <t xml:space="preserve">Forward Township</t>
   </si>
   <si>
+    <t xml:space="preserve">forward_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOX CHAPEL</t>
   </si>
   <si>
@@ -536,6 +672,9 @@
     <t xml:space="preserve">https://www.fox-chapel.pa.us/</t>
   </si>
   <si>
+    <t xml:space="preserve">fox_chapel_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRANKLIN PARK</t>
   </si>
   <si>
@@ -545,6 +684,9 @@
     <t xml:space="preserve">https://franklinparkborough.us/</t>
   </si>
   <si>
+    <t xml:space="preserve">franklin_park_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRAZER</t>
   </si>
   <si>
@@ -554,6 +696,9 @@
     <t xml:space="preserve">http://frazertownship.net/</t>
   </si>
   <si>
+    <t xml:space="preserve">frazer_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLASSPORT</t>
   </si>
   <si>
@@ -566,6 +711,9 @@
     <t xml:space="preserve">https://glassportborough.net/</t>
   </si>
   <si>
+    <t xml:space="preserve">glassport_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLEN OSBORNE</t>
   </si>
   <si>
@@ -575,6 +723,9 @@
     <t xml:space="preserve">https://glenosborneborough.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">glen_osborne_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">GLENFIELD</t>
   </si>
   <si>
@@ -584,6 +735,9 @@
     <t xml:space="preserve">http://glenfieldborough.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">glenfield_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">GREEN TREE</t>
   </si>
   <si>
@@ -593,6 +747,9 @@
     <t xml:space="preserve">http://www.greentreeboro.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">green_tree_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">HAMPTON</t>
   </si>
   <si>
@@ -602,6 +759,9 @@
     <t xml:space="preserve">https://www.hampton-pa.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">hampton_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">HARMAR</t>
   </si>
   <si>
@@ -611,6 +771,9 @@
     <t xml:space="preserve">http://www.harmartownship-pa.gov/</t>
   </si>
   <si>
+    <t xml:space="preserve">harmar_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">HARRISON</t>
   </si>
   <si>
@@ -620,6 +783,9 @@
     <t xml:space="preserve">http://harrisontwp.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">harrison_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">HAYSVILLE</t>
   </si>
   <si>
@@ -629,6 +795,9 @@
     <t xml:space="preserve">https://www.haysvilleborough.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">haysville_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">HEIDELBERG</t>
   </si>
   <si>
@@ -638,6 +807,9 @@
     <t xml:space="preserve">http://heidelbergborough.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">heidelberg_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">HOMESTEAD</t>
   </si>
   <si>
@@ -650,6 +822,9 @@
     <t xml:space="preserve">http://www.homesteadborough.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">homestead_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">INDIANA</t>
   </si>
   <si>
@@ -662,6 +837,9 @@
     <t xml:space="preserve">Optional Plan</t>
   </si>
   <si>
+    <t xml:space="preserve">indiana_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">INGRAM</t>
   </si>
   <si>
@@ -674,6 +852,9 @@
     <t xml:space="preserve">https://www.ingramborough.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">ingram_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">JEFFERSON HILLS</t>
   </si>
   <si>
@@ -686,6 +867,9 @@
     <t xml:space="preserve">https://www.jeffersonhillsboro.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">jefferson_hills_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">KENNEDY</t>
   </si>
   <si>
@@ -695,6 +879,9 @@
     <t xml:space="preserve">http://www.kennedytwp.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">kennedy_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">KILBUCK</t>
   </si>
   <si>
@@ -704,42 +891,63 @@
     <t xml:space="preserve">https://www.kilbucktownship.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">kilbuck_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">LEET</t>
   </si>
   <si>
     <t xml:space="preserve">Leet Township</t>
   </si>
   <si>
+    <t xml:space="preserve">leet_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">LEETSDALE</t>
   </si>
   <si>
     <t xml:space="preserve">Leetsdale Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">leetsdale_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIBERTY</t>
   </si>
   <si>
     <t xml:space="preserve">Liberty Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">liberty_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">LINCOLN</t>
   </si>
   <si>
     <t xml:space="preserve">Lincoln Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">lincoln_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">MARSHALL</t>
   </si>
   <si>
     <t xml:space="preserve">Marshall Township</t>
   </si>
   <si>
+    <t xml:space="preserve">marshall_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">MCCANDLESS</t>
   </si>
   <si>
     <t xml:space="preserve">McCandless Township</t>
   </si>
   <si>
+    <t xml:space="preserve">mccandless_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">MCDONALD</t>
   </si>
   <si>
@@ -749,6 +957,9 @@
     <t xml:space="preserve">Fort Cherry</t>
   </si>
   <si>
+    <t xml:space="preserve">mcdonald_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">MCKEES ROCKS</t>
   </si>
   <si>
@@ -758,18 +969,27 @@
     <t xml:space="preserve">Sto-Rox</t>
   </si>
   <si>
+    <t xml:space="preserve">mckees_rocks_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">MCKEESPORT</t>
   </si>
   <si>
     <t xml:space="preserve">McKeesport</t>
   </si>
   <si>
+    <t xml:space="preserve">mckeesport_c</t>
+  </si>
+  <si>
     <t xml:space="preserve">MILLVALE</t>
   </si>
   <si>
     <t xml:space="preserve">Millvale Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">millvale_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">MONROEVILLE</t>
   </si>
   <si>
@@ -779,12 +999,18 @@
     <t xml:space="preserve">Gateway</t>
   </si>
   <si>
+    <t xml:space="preserve">monroeville_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOON</t>
   </si>
   <si>
     <t xml:space="preserve">Moon Township</t>
   </si>
   <si>
+    <t xml:space="preserve">moon_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOUNT LEBANON</t>
   </si>
   <si>
@@ -794,6 +1020,12 @@
     <t xml:space="preserve">Mt. Lebanon</t>
   </si>
   <si>
+    <t xml:space="preserve">https://mtlebanon.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mount_lebanon_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOUNT OLIVER</t>
   </si>
   <si>
@@ -803,48 +1035,72 @@
     <t xml:space="preserve">City of Pittsburgh</t>
   </si>
   <si>
+    <t xml:space="preserve">mount_oliver_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">MUNHALL</t>
   </si>
   <si>
     <t xml:space="preserve">Munhall Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">munhall_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEVILLE</t>
   </si>
   <si>
     <t xml:space="preserve">Neville Township</t>
   </si>
   <si>
+    <t xml:space="preserve">neville_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">NORTH BRADDOCK</t>
   </si>
   <si>
     <t xml:space="preserve">North Braddock Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">north_braddock_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">NORTH FAYETTE</t>
   </si>
   <si>
     <t xml:space="preserve">North Fayette Township</t>
   </si>
   <si>
+    <t xml:space="preserve">north_fayette_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">NORTH VERSAILLES</t>
   </si>
   <si>
     <t xml:space="preserve">North Versailles Township</t>
   </si>
   <si>
+    <t xml:space="preserve">north_versailles_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">O'HARA</t>
   </si>
   <si>
     <t xml:space="preserve">O Hara Township</t>
   </si>
   <si>
+    <t xml:space="preserve">o_hara_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">OAKDALE</t>
   </si>
   <si>
     <t xml:space="preserve">Oakdale Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">oakdale_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">OAKMONT</t>
   </si>
   <si>
@@ -854,12 +1110,18 @@
     <t xml:space="preserve">Riverview</t>
   </si>
   <si>
+    <t xml:space="preserve">oakmont_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">OHIO</t>
   </si>
   <si>
     <t xml:space="preserve">Ohio Township</t>
   </si>
   <si>
+    <t xml:space="preserve">ohio_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">PENN HILLS</t>
   </si>
   <si>
@@ -869,12 +1131,18 @@
     <t xml:space="preserve">Penn Hills</t>
   </si>
   <si>
+    <t xml:space="preserve">penn_hills_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">PENNSBURY VILLAGE</t>
   </si>
   <si>
     <t xml:space="preserve">Pennsbury Village Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">pennsbury_village_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">PINE</t>
   </si>
   <si>
@@ -884,12 +1152,18 @@
     <t xml:space="preserve">Pine-Richland</t>
   </si>
   <si>
+    <t xml:space="preserve">pine_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">PITCAIRN</t>
   </si>
   <si>
     <t xml:space="preserve">Pitcairn Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">pitcairn_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">PITTSBURGH</t>
   </si>
   <si>
@@ -899,48 +1173,72 @@
     <t xml:space="preserve">2nd City</t>
   </si>
   <si>
+    <t xml:space="preserve">pittsburgh_c</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLEASANT HILLS</t>
   </si>
   <si>
     <t xml:space="preserve">Pleasant Hills Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">pleasant_hills_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLUM</t>
   </si>
   <si>
     <t xml:space="preserve">Plum Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">plum_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">PORT VUE</t>
   </si>
   <si>
     <t xml:space="preserve">Port Vue Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">port_vue_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">RANKIN</t>
   </si>
   <si>
     <t xml:space="preserve">Rankin Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">rankin_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">RESERVE</t>
   </si>
   <si>
     <t xml:space="preserve">Reserve Township</t>
   </si>
   <si>
+    <t xml:space="preserve">reserve_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">RICHLAND</t>
   </si>
   <si>
     <t xml:space="preserve">Richland Township</t>
   </si>
   <si>
+    <t xml:space="preserve">richland_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROBINSON</t>
   </si>
   <si>
     <t xml:space="preserve">Robinson Township</t>
   </si>
   <si>
+    <t xml:space="preserve">robinson_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROSS</t>
   </si>
   <si>
@@ -950,48 +1248,75 @@
     <t xml:space="preserve">North Hills</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.ross.pa.us/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ross_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROSSLYN FARMS</t>
   </si>
   <si>
     <t xml:space="preserve">Rosslyn Farms Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">rosslyn_farms_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCOTT</t>
   </si>
   <si>
     <t xml:space="preserve">Scott Township</t>
   </si>
   <si>
+    <t xml:space="preserve">scott_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEWICKLEY</t>
   </si>
   <si>
     <t xml:space="preserve">Sewickley Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">sewickley_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEWICKLEY HEIGHTS</t>
   </si>
   <si>
     <t xml:space="preserve">Sewickley Heights Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">sewickley_heights_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEWICKLEY HILLS</t>
   </si>
   <si>
     <t xml:space="preserve">Sewickley Hills Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">sewickley_hills_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHALER</t>
   </si>
   <si>
     <t xml:space="preserve">Shaler Township</t>
   </si>
   <si>
+    <t xml:space="preserve">shaler_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHARPSBURG</t>
   </si>
   <si>
     <t xml:space="preserve">Sharpsburg Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">sharpsburg_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOUTH FAYETTE</t>
   </si>
   <si>
@@ -1001,6 +1326,9 @@
     <t xml:space="preserve">South Fayete Township</t>
   </si>
   <si>
+    <t xml:space="preserve">south_fayette_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOUTH PARK</t>
   </si>
   <si>
@@ -1010,45 +1338,69 @@
     <t xml:space="preserve">South Park</t>
   </si>
   <si>
+    <t xml:space="preserve">south_park_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOUTH VERSAILLES</t>
   </si>
   <si>
     <t xml:space="preserve">South Versailles Township</t>
   </si>
   <si>
+    <t xml:space="preserve">south_versailles_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">SPRINGDALE</t>
   </si>
   <si>
     <t xml:space="preserve">Springdale Township</t>
   </si>
   <si>
+    <t xml:space="preserve">springdale_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">Springdale Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">springdale_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">STOWE</t>
   </si>
   <si>
     <t xml:space="preserve">Stowe Township</t>
   </si>
   <si>
+    <t xml:space="preserve">stowe_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWISSVALE</t>
   </si>
   <si>
     <t xml:space="preserve">Swissvale Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">swissvale_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">TARENTUM</t>
   </si>
   <si>
     <t xml:space="preserve">Tarentum Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">tarentum_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">THORNBURG</t>
   </si>
   <si>
     <t xml:space="preserve">Thornburg Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">thornburg_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRAFFORD</t>
   </si>
   <si>
@@ -1058,12 +1410,18 @@
     <t xml:space="preserve">Penn-Trafford</t>
   </si>
   <si>
+    <t xml:space="preserve">trafford_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">TURTLE CREEK</t>
   </si>
   <si>
     <t xml:space="preserve">Turtle Creek Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">turtle_creek_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPPER ST. CLAIR</t>
   </si>
   <si>
@@ -1073,18 +1431,27 @@
     <t xml:space="preserve">Upper St. Clair Area</t>
   </si>
   <si>
+    <t xml:space="preserve">upper_st_clair_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">VERONA</t>
   </si>
   <si>
     <t xml:space="preserve">Verona Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">verona_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">VERSAILLES</t>
   </si>
   <si>
     <t xml:space="preserve">Versailles Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">versailles_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">WALL</t>
   </si>
   <si>
@@ -1094,24 +1461,36 @@
     <t xml:space="preserve">http://www.wallborough.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">wall_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">WEST DEER</t>
   </si>
   <si>
     <t xml:space="preserve">West Deer Township</t>
   </si>
   <si>
+    <t xml:space="preserve">west_deer_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">WEST ELIZABETH</t>
   </si>
   <si>
     <t xml:space="preserve">West Elizabeth Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">west_elizabeth_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">WEST HOMESTEAD</t>
   </si>
   <si>
     <t xml:space="preserve">West Homestead Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">west_homestead_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">WEST MIFFLIN</t>
   </si>
   <si>
@@ -1121,36 +1500,54 @@
     <t xml:space="preserve">West Mifflin Area</t>
   </si>
   <si>
+    <t xml:space="preserve">west_mifflin_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">WEST VIEW</t>
   </si>
   <si>
     <t xml:space="preserve">West View Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">west_view_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">WHITAKER</t>
   </si>
   <si>
     <t xml:space="preserve">Whitaker Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">whitaker_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">WHITE OAK</t>
   </si>
   <si>
     <t xml:space="preserve">White Oak Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">white_oak_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">WHITEHALL</t>
   </si>
   <si>
     <t xml:space="preserve">Whitehall Borough</t>
   </si>
   <si>
+    <t xml:space="preserve">whitehall_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">WILKINS</t>
   </si>
   <si>
     <t xml:space="preserve">Wilkins Township</t>
   </si>
   <si>
+    <t xml:space="preserve">wilkins_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">WILKINSBURG</t>
   </si>
   <si>
@@ -1160,6 +1557,9 @@
     <t xml:space="preserve">Wilkinsburg</t>
   </si>
   <si>
+    <t xml:space="preserve">wilkinsburg_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">WILMERDING</t>
   </si>
   <si>
@@ -1167,6 +1567,189 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.wilmerdingboro.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wilmerding_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipal Entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population estimates, July 1, 2019,  (V2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipality of Penn Hills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipality of Bethel Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipality of Mt. Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Town of McCandless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipality of Monroeville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Plum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper St. Clair Township</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Baldwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Wilkinsburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Franklin Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Whitehall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Jefferson Hills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Munhall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Brentwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O'Hara Township</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Swissvale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Dormont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Castle Shannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Bellevue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Pleasant Hills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Carnegie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Oakmont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Forest Hills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Crafton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Coraopolis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Fox Chapel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Bridgeville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Green Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of North Braddock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Avalon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Tarentum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Glassport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Sewickley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Millvale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Etna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Homestead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Trafford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Edgewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Churchill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Aspinwall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Verona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Emsworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Wilmerding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of East McKeesport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Rankin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of East Pittsburgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Ben Avon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Cheswick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Edgeworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Elizabeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Blawnox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Whitaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Leetsdale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Bradford Woods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Lincoln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Glen Osborne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borough of Ben Avon Hts</t>
   </si>
   <si>
     <t xml:space="preserve">MUNICIPALITY</t>
@@ -1492,7 +2075,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1517,6 +2100,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1564,12 +2154,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1586,6 +2180,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1594,15 +2248,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="H98" activeCellId="0" sqref="H98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -1611,6 +2265,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,2542 +2293,2947 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>14</v>
+      <c r="I3" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>14</v>
+        <v>106</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>90</v>
+        <v>112</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>90</v>
+        <v>112</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>90</v>
+        <v>112</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>99</v>
+      <c r="I31" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>212</v>
+        <v>270</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>236</v>
+        <v>303</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>247</v>
+        <v>319</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>248</v>
+        <v>320</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>249</v>
+        <v>322</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>256</v>
+        <v>331</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>332</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>261</v>
+        <v>339</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>262</v>
+        <v>341</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>265</v>
+        <v>345</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>268</v>
+        <v>350</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>269</v>
+        <v>351</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>279</v>
+        <v>366</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>281</v>
+        <v>368</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>282</v>
+        <v>370</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>285</v>
+        <v>374</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>287</v>
+        <v>377</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>288</v>
+        <v>378</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>289</v>
+        <v>380</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>291</v>
+        <v>382</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>294</v>
+        <v>387</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>295</v>
+        <v>388</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>295</v>
+        <v>388</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>296</v>
+        <v>390</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>297</v>
+        <v>391</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>298</v>
+        <v>393</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>299</v>
+        <v>394</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>301</v>
+        <v>397</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>303</v>
+        <v>400</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>304</v>
+        <v>402</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>306</v>
+        <v>405</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>307</v>
+        <v>406</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>308</v>
+        <v>407</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>408</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>309</v>
+        <v>410</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>310</v>
+        <v>411</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>311</v>
+        <v>413</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>312</v>
+        <v>414</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I101" s="0" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>315</v>
+        <v>419</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>316</v>
+        <v>420</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>317</v>
+        <v>422</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>318</v>
+        <v>423</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>320</v>
+        <v>426</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>321</v>
+        <v>428</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>322</v>
+        <v>429</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>324</v>
+        <v>432</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>325</v>
+        <v>433</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>326</v>
+        <v>435</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>327</v>
+        <v>436</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>328</v>
+        <v>437</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
+      </c>
+      <c r="I107" s="0" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>329</v>
+        <v>439</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>331</v>
+        <v>442</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>332</v>
+        <v>443</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>331</v>
+        <v>442</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>333</v>
+        <v>445</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>334</v>
+        <v>447</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>335</v>
+        <v>448</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>336</v>
+        <v>450</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>337</v>
+        <v>451</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>338</v>
+        <v>453</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>339</v>
+        <v>454</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>340</v>
+        <v>456</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>341</v>
+        <v>457</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I114" s="0" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>342</v>
+        <v>459</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>343</v>
+        <v>460</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>344</v>
+        <v>461</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>346</v>
+        <v>464</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>347</v>
+        <v>466</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>348</v>
+        <v>467</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>349</v>
+        <v>468</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>351</v>
+        <v>471</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>352</v>
+        <v>473</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>353</v>
+        <v>474</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>354</v>
+        <v>476</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>355</v>
+        <v>477</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>356</v>
+        <v>478</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>357</v>
+        <v>480</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>358</v>
+        <v>481</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>359</v>
+        <v>483</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>360</v>
+        <v>484</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>361</v>
+        <v>486</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>362</v>
+        <v>487</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>363</v>
+        <v>489</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>364</v>
+        <v>490</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>365</v>
+        <v>491</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>366</v>
+        <v>493</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>367</v>
+        <v>494</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>308</v>
+        <v>407</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>368</v>
+        <v>496</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>369</v>
+        <v>497</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>365</v>
+        <v>491</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I126" s="0" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>370</v>
+        <v>499</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>371</v>
+        <v>500</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>372</v>
+        <v>502</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>373</v>
+        <v>503</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="I128" s="0" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>374</v>
+        <v>505</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>375</v>
+        <v>506</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I129" s="0" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>376</v>
+        <v>508</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>377</v>
+        <v>509</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>378</v>
+        <v>510</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I130" s="0" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>379</v>
+        <v>512</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>380</v>
+        <v>513</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>381</v>
+        <v>514</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4253,13 +5313,729 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B86"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>300286</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>40807</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>32345</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>32124</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>30473</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>28193</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>27720</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>27380</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>27087</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>25437</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>19744</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>19554</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>18181</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>16428</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>15945</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>15292</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>14885</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>14816</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>13850</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>13741</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>13628</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>13393</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>11986</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>11373</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>11101</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>11006</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>10236</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>9924</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>9598</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>9268</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>8647</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>8282</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>8217</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>8036</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>8026</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>7806</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>6541</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>6298</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>6121</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>4832</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>
@@ -4270,1320 +6046,1320 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>382</v>
+        <v>576</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>383</v>
+        <v>577</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>384</v>
+        <v>578</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>385</v>
+        <v>579</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>386</v>
+        <v>580</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>387</v>
+        <v>581</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>388</v>
+        <v>582</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>389</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>390</v>
+        <v>584</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>392</v>
+        <v>586</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>44561</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="J2" s="2" t="n">
+        <v>588</v>
+      </c>
+      <c r="J2" s="3" t="n">
         <v>44100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>390</v>
+        <v>584</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>395</v>
+        <v>589</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>45291</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>396</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>390</v>
+        <v>584</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>397</v>
+        <v>591</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>44561</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>390</v>
+        <v>584</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="G5" s="2" t="n">
+        <v>592</v>
+      </c>
+      <c r="G5" s="3" t="n">
         <v>44561</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>390</v>
+        <v>584</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="G6" s="2" t="n">
+        <v>593</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>44561</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>400</v>
+        <v>594</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>401</v>
+        <v>595</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>402</v>
+        <v>596</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>403</v>
+        <v>597</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>404</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>406</v>
+        <v>600</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>407</v>
+        <v>601</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>409</v>
+        <v>603</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>410</v>
+        <v>604</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>411</v>
+        <v>605</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>412</v>
+        <v>606</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>413</v>
+        <v>607</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>414</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>400</v>
+        <v>594</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>415</v>
+        <v>609</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>416</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>402</v>
+        <v>596</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>417</v>
+        <v>611</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>418</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>419</v>
+        <v>613</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>420</v>
+        <v>614</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>419</v>
+        <v>613</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>421</v>
+        <v>615</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>419</v>
+        <v>613</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>422</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>423</v>
+        <v>617</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>424</v>
+        <v>618</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>423</v>
+        <v>617</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>425</v>
+        <v>619</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>423</v>
+        <v>617</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>426</v>
+        <v>620</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>427</v>
+        <v>621</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>428</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>427</v>
+        <v>621</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>429</v>
+        <v>623</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>427</v>
+        <v>621</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>430</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>400</v>
+        <v>594</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>431</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>390</v>
+        <v>584</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>432</v>
+        <v>626</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>433</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>390</v>
+        <v>584</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>434</v>
+        <v>628</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>390</v>
+        <v>584</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>435</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>390</v>
+        <v>584</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>436</v>
+        <v>630</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>390</v>
+        <v>584</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>437</v>
+        <v>631</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>400</v>
+        <v>594</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>438</v>
+        <v>632</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>402</v>
+        <v>596</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>439</v>
+        <v>633</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>440</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>441</v>
+        <v>635</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>396</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>442</v>
+        <v>636</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>443</v>
+        <v>637</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>444</v>
+        <v>638</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>445</v>
+        <v>639</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>446</v>
+        <v>640</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>396</v>
+        <v>590</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>447</v>
+        <v>641</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>396</v>
+        <v>590</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>400</v>
+        <v>594</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>448</v>
+        <v>642</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>396</v>
+        <v>590</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>449</v>
+        <v>643</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>402</v>
+        <v>596</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>450</v>
+        <v>644</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>451</v>
+        <v>645</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>452</v>
+        <v>646</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>453</v>
+        <v>647</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>454</v>
+        <v>648</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>455</v>
+        <v>649</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>456</v>
+        <v>650</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>457</v>
+        <v>651</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>458</v>
+        <v>652</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>400</v>
+        <v>594</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>459</v>
+        <v>653</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="J52" s="2" t="n">
+        <v>654</v>
+      </c>
+      <c r="J52" s="3" t="n">
         <v>44101</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>402</v>
+        <v>596</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>461</v>
+        <v>655</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>462</v>
+        <v>656</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>419</v>
+        <v>613</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>463</v>
+        <v>657</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>419</v>
+        <v>613</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>464</v>
+        <v>658</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>419</v>
+        <v>613</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>465</v>
+        <v>659</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>423</v>
+        <v>617</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>466</v>
+        <v>660</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>423</v>
+        <v>617</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>467</v>
+        <v>661</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>423</v>
+        <v>617</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>468</v>
+        <v>662</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>396</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>427</v>
+        <v>621</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>469</v>
+        <v>663</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>427</v>
+        <v>621</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>470</v>
+        <v>664</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>427</v>
+        <v>621</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>471</v>
+        <v>665</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>400</v>
+        <v>594</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>472</v>
+        <v>666</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>396</v>
+        <v>590</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>473</v>
+        <v>667</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>474</v>
+        <v>668</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>473</v>
+        <v>667</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>475</v>
+        <v>669</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>402</v>
+        <v>596</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>476</v>
+        <v>670</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>477</v>
+        <v>671</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>478</v>
+        <v>672</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>479</v>
+        <v>673</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>480</v>
+        <v>674</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>481</v>
+        <v>675</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>482</v>
+        <v>676</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>483</v>
+        <v>677</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>484</v>
+        <v>678</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>400</v>
+        <v>594</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>391</v>
+        <v>585</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>485</v>
+        <v>679</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>486</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -2251,12 +2251,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="H98" activeCellId="0" sqref="H98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -5319,7 +5319,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -6035,7 +6035,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="681">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2251,12 +2251,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H98" activeCellId="0" sqref="H98"/>
+      <selection pane="bottomLeft" activeCell="H68" activeCellId="0" sqref="H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -4556,6 +4556,9 @@
       </c>
       <c r="F98" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="I98" s="0" t="s">
         <v>409</v>
@@ -5316,10 +5319,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5366,10 +5369,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>30473</v>
       </c>
     </row>
@@ -6035,7 +6038,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="681">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2251,12 +2251,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H68" activeCellId="0" sqref="H68"/>
+      <selection pane="bottomLeft" activeCell="H104" activeCellId="0" sqref="H104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -3917,6 +3917,9 @@
       </c>
       <c r="G68" s="0" t="s">
         <v>44</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>307</v>
@@ -5319,10 +5322,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5377,10 +5380,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>28193</v>
       </c>
     </row>
@@ -6038,7 +6041,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="681">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2251,12 +2251,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H104" activeCellId="0" sqref="H104"/>
+      <selection pane="bottomLeft" activeCell="H73" activeCellId="0" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -4682,6 +4682,9 @@
       </c>
       <c r="F104" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="I104" s="0" t="s">
         <v>427</v>
@@ -5322,10 +5325,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5388,10 +5391,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>27720</v>
       </c>
     </row>
@@ -6041,7 +6044,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="681">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2251,12 +2251,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H73" activeCellId="0" sqref="H73"/>
+      <selection pane="bottomLeft" activeCell="H92" activeCellId="0" sqref="H92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -4026,6 +4026,9 @@
       </c>
       <c r="G73" s="0" t="s">
         <v>44</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>325</v>
@@ -5325,10 +5328,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5399,10 +5402,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>27380</v>
       </c>
     </row>
@@ -6044,7 +6047,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="681">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2253,10 +2253,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H92" activeCellId="0" sqref="H92"/>
+      <selection pane="bottomLeft" activeCell="H74" activeCellId="0" sqref="H74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -4436,6 +4436,9 @@
       </c>
       <c r="F92" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="I92" s="0" t="s">
         <v>389</v>
@@ -5328,10 +5331,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5410,10 +5413,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>27087</v>
       </c>
     </row>
@@ -6047,7 +6050,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="681">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2251,12 +2251,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H74" activeCellId="0" sqref="H74"/>
+      <selection pane="bottomLeft" activeCell="H117" activeCellId="0" sqref="H117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -4049,6 +4049,9 @@
       </c>
       <c r="F74" s="0" t="s">
         <v>199</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>328</v>
@@ -5331,10 +5334,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5421,10 +5424,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>25437</v>
       </c>
     </row>
@@ -6050,7 +6053,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="681">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2251,12 +2251,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H117" activeCellId="0" sqref="H117"/>
+      <selection pane="bottomLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -4957,6 +4957,9 @@
       </c>
       <c r="G117" s="0" t="s">
         <v>44</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="I117" s="0" t="s">
         <v>469</v>
@@ -5334,10 +5337,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5432,18 +5435,18 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>19744</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>19554</v>
       </c>
     </row>
@@ -6053,7 +6056,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="681">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2250,13 +2250,13 @@
   </sheetPr>
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -4330,6 +4330,9 @@
       </c>
       <c r="F87" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="I87" s="0" t="s">
         <v>372</v>
@@ -5340,7 +5343,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -6056,7 +6059,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="681">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2251,12 +2251,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
+      <selection pane="bottomLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -2872,7 +2872,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>117</v>
@@ -3561,6 +3561,9 @@
       </c>
       <c r="G52" s="0" t="s">
         <v>44</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>245</v>
@@ -5340,10 +5343,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5454,10 +5457,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>18181</v>
       </c>
     </row>
@@ -6059,7 +6062,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -2253,10 +2253,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -2872,7 +2872,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>117</v>
@@ -5346,7 +5346,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -6062,7 +6062,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="680">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -340,9 +340,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://chalfantborough-pa.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROKEN</t>
   </si>
   <si>
     <t xml:space="preserve">chalfant_b</t>
@@ -2251,12 +2248,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="H100" activeCellId="0" sqref="H100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -2820,53 +2817,53 @@
         <v>22</v>
       </c>
       <c r="H21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>72</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>22</v>
@@ -2875,27 +2872,27 @@
         <v>15</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>123</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>44</v>
@@ -2904,24 +2901,24 @@
         <v>15</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>90</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>14</v>
@@ -2930,76 +2927,76 @@
         <v>15</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>14</v>
@@ -3008,527 +3005,527 @@
         <v>15</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>143</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>168</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>72</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>188</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="0" t="s">
+      <c r="D40" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="I41" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I42" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>206</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>207</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>72</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I44" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>218</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>81</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I47" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="0" t="s">
+      <c r="D48" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="0" t="s">
         <v>228</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>230</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>231</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>234</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>235</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="0" t="s">
         <v>236</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>239</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>22</v>
@@ -3537,27 +3534,27 @@
         <v>44</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>244</v>
-      </c>
       <c r="F52" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>44</v>
@@ -3566,251 +3563,251 @@
         <v>15</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I53" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>67</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>255</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="0" t="s">
         <v>256</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>258</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>259</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>90</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="0" t="s">
         <v>260</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="0" t="s">
+      <c r="D57" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>20</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="F58" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="G58" s="0" t="s">
+      <c r="I58" s="0" t="s">
         <v>270</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="0" t="s">
+      <c r="D59" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="0" t="s">
+      <c r="D60" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="0" t="s">
         <v>280</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>48</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I62" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>12</v>
@@ -3819,18 +3816,18 @@
         <v>14</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>293</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>294</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>12</v>
@@ -3839,78 +3836,78 @@
         <v>22</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="0" t="s">
+      <c r="D65" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="0" t="s">
+      <c r="D66" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>81</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>81</v>
@@ -3925,104 +3922,104 @@
         <v>15</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="0" t="s">
+      <c r="D69" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="F69" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="0" t="s">
+      <c r="D70" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="F70" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="D71" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>44</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="0" t="s">
+      <c r="D72" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="0" t="s">
         <v>320</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>56</v>
       </c>
       <c r="C73" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>323</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>324</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>22</v>
@@ -4034,47 +4031,47 @@
         <v>15</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I74" s="0" t="s">
         <v>327</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="E75" s="0" t="s">
         <v>331</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>332</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>14</v>
@@ -4086,78 +4083,78 @@
         <v>15</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="0" t="s">
+      <c r="D76" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="F76" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="0" t="s">
+      <c r="D77" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="0" t="s">
         <v>339</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>344</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>345</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>72</v>
@@ -4166,58 +4163,58 @@
         <v>22</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I80" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>20</v>
@@ -4229,81 +4226,81 @@
         <v>44</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="0" t="s">
+      <c r="D83" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="0" t="s">
         <v>357</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="0" t="s">
+      <c r="D84" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="F84" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" s="0" t="s">
         <v>361</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>48</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>56</v>
       </c>
       <c r="C86" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D86" s="0" t="s">
         <v>367</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>368</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>14</v>
@@ -4315,21 +4312,21 @@
         <v>15</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="D87" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>22</v>
@@ -4338,67 +4335,67 @@
         <v>15</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C88" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D88" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="D88" s="0" t="s">
-        <v>375</v>
-      </c>
       <c r="F88" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>44</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="0" t="s">
+      <c r="D89" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" s="0" t="s">
         <v>378</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I89" s="0" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" s="0" t="s">
+      <c r="D90" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="F90" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>382</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>44</v>
@@ -4407,41 +4404,41 @@
         <v>15</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="0" t="s">
+      <c r="D91" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>388</v>
-      </c>
       <c r="D92" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>22</v>
@@ -4450,38 +4447,38 @@
         <v>15</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="0" t="s">
+      <c r="D93" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>393</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>394</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>72</v>
@@ -4490,87 +4487,87 @@
         <v>22</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>44</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="D98" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="E98" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>408</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>14</v>
@@ -4579,18 +4576,18 @@
         <v>15</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>410</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>411</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>95</v>
@@ -4599,18 +4596,18 @@
         <v>22</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>90</v>
@@ -4619,18 +4616,18 @@
         <v>14</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>416</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>417</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>12</v>
@@ -4639,18 +4636,18 @@
         <v>22</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>419</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>420</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>12</v>
@@ -4659,18 +4656,18 @@
         <v>22</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>422</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>423</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>12</v>
@@ -4679,21 +4676,21 @@
         <v>22</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>14</v>
@@ -4702,18 +4699,18 @@
         <v>15</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>428</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>429</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>20</v>
@@ -4722,138 +4719,138 @@
         <v>22</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D106" s="0" t="s">
         <v>432</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>433</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="D107" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="F107" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I107" s="0" t="s">
         <v>437</v>
-      </c>
-      <c r="F107" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I107" s="0" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C110" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I110" s="0" t="s">
         <v>445</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F110" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I110" s="0" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>450</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>451</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>72</v>
@@ -4862,18 +4859,18 @@
         <v>22</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>453</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>454</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>67</v>
@@ -4882,58 +4879,58 @@
         <v>22</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" s="0" t="s">
+      <c r="D114" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I114" s="0" t="s">
         <v>457</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="F114" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I114" s="0" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" s="0" t="s">
+      <c r="D115" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="F115" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I115" s="0" t="s">
         <v>461</v>
-      </c>
-      <c r="F115" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>463</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>464</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>72</v>
@@ -4942,21 +4939,21 @@
         <v>22</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>56</v>
       </c>
       <c r="C117" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="D117" s="0" t="s">
         <v>467</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>468</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>14</v>
@@ -4968,224 +4965,224 @@
         <v>15</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C118" s="0" t="s">
+      <c r="D118" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I118" s="0" t="s">
         <v>471</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="B119" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C119" s="0" t="s">
+      <c r="D119" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I119" s="0" t="s">
         <v>474</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="B120" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C120" s="0" t="s">
+      <c r="D120" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="E120" s="1" t="s">
+      <c r="F120" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I120" s="0" t="s">
         <v>478</v>
-      </c>
-      <c r="F120" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>44</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="B122" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="0" t="s">
+      <c r="D122" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I122" s="0" t="s">
         <v>484</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I122" s="0" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C123" s="0" t="s">
+      <c r="D123" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I123" s="0" t="s">
         <v>487</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I123" s="0" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" s="0" t="s">
+      <c r="D124" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="F124" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I124" s="0" t="s">
         <v>491</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I124" s="0" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="0" t="s">
+      <c r="D125" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I125" s="0" t="s">
         <v>494</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="B126" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C126" s="0" t="s">
+      <c r="D126" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I126" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I126" s="0" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="B127" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" s="0" t="s">
+      <c r="D127" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I127" s="0" t="s">
         <v>500</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="F127" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I127" s="0" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>502</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>503</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>31</v>
@@ -5197,18 +5194,18 @@
         <v>44</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>72</v>
@@ -5217,50 +5214,50 @@
         <v>14</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C130" s="0" t="s">
+      <c r="D130" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="F130" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I130" s="0" t="s">
         <v>510</v>
-      </c>
-      <c r="F130" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I130" s="0" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="B131" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C131" s="0" t="s">
+      <c r="D131" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D131" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="E131" s="1" t="s">
+      <c r="F131" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I131" s="0" t="s">
         <v>514</v>
-      </c>
-      <c r="F131" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I131" s="0" t="s">
-        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -5346,7 +5343,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5354,15 +5351,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>516</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>300286</v>
@@ -5370,7 +5367,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>40807</v>
@@ -5378,7 +5375,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>32345</v>
@@ -5386,7 +5383,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>32124</v>
@@ -5394,7 +5391,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>30473</v>
@@ -5402,7 +5399,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>28193</v>
@@ -5410,7 +5407,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>27720</v>
@@ -5418,7 +5415,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>27380</v>
@@ -5426,7 +5423,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>27087</v>
@@ -5434,7 +5431,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>25437</v>
@@ -5442,7 +5439,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>19744</v>
@@ -5450,7 +5447,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>19554</v>
@@ -5458,7 +5455,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>18181</v>
@@ -5466,7 +5463,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>16428</v>
@@ -5474,7 +5471,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>15945</v>
@@ -5482,7 +5479,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>15292</v>
@@ -5490,7 +5487,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>14885</v>
@@ -5498,7 +5495,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>14816</v>
@@ -5506,7 +5503,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>13850</v>
@@ -5514,7 +5511,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>13741</v>
@@ -5522,7 +5519,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>13628</v>
@@ -5530,7 +5527,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>13393</v>
@@ -5538,7 +5535,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>11986</v>
@@ -5546,7 +5543,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>11373</v>
@@ -5554,7 +5551,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>11101</v>
@@ -5562,7 +5559,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>11006</v>
@@ -5570,7 +5567,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>10236</v>
@@ -5578,7 +5575,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>9924</v>
@@ -5586,7 +5583,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>9598</v>
@@ -5594,7 +5591,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>9268</v>
@@ -5602,7 +5599,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>8799</v>
@@ -5610,7 +5607,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>8647</v>
@@ -5618,7 +5615,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>8282</v>
@@ -5626,7 +5623,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>8217</v>
@@ -5634,7 +5631,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>8216</v>
@@ -5642,7 +5639,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>8036</v>
@@ -5650,7 +5647,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>8026</v>
@@ -5658,7 +5655,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>7806</v>
@@ -5666,7 +5663,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>6925</v>
@@ -5674,7 +5671,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>6541</v>
@@ -5682,7 +5679,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>6298</v>
@@ -5690,7 +5687,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>6121</v>
@@ -5698,7 +5695,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>6023</v>
@@ -5706,7 +5703,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>5770</v>
@@ -5714,7 +5711,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>5424</v>
@@ -5722,7 +5719,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>5076</v>
@@ -5730,7 +5727,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>4903</v>
@@ -5738,7 +5735,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>4832</v>
@@ -5746,7 +5743,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>4669</v>
@@ -5754,7 +5751,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>4537</v>
@@ -5762,7 +5759,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>4366</v>
@@ -5770,7 +5767,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4315</v>
@@ -5778,7 +5775,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>3791</v>
@@ -5786,7 +5783,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>3662</v>
@@ -5794,7 +5791,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3308</v>
@@ -5802,7 +5799,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3149</v>
@@ -5810,7 +5807,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>3039</v>
@@ -5818,7 +5815,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>3007</v>
@@ -5826,7 +5823,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3004</v>
@@ -5834,7 +5831,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2921</v>
@@ -5842,7 +5839,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2693</v>
@@ -5850,7 +5847,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2563</v>
@@ -5866,7 +5863,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2411</v>
@@ -5874,7 +5871,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2350</v>
@@ -5882,7 +5879,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2111</v>
@@ -5890,7 +5887,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2042</v>
@@ -5898,7 +5895,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2027</v>
@@ -5914,7 +5911,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>1757</v>
@@ -5922,7 +5919,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>1731</v>
@@ -5930,7 +5927,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>1675</v>
@@ -5938,7 +5935,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1647</v>
@@ -5946,7 +5943,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1583</v>
@@ -5954,7 +5951,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1580</v>
@@ -5962,7 +5959,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1476</v>
@@ -5970,7 +5967,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1388</v>
@@ -5978,7 +5975,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1235</v>
@@ -5986,7 +5983,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1157</v>
@@ -5994,7 +5991,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>1141</v>
@@ -6002,7 +5999,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1022</v>
@@ -6010,7 +6007,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>719</v>
@@ -6018,7 +6015,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>557</v>
@@ -6026,7 +6023,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>538</v>
@@ -6034,7 +6031,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>363</v>
@@ -6062,7 +6059,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>
@@ -6073,34 +6070,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>577</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>578</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>582</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6111,13 +6108,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2017</v>
@@ -6126,10 +6123,10 @@
         <v>44561</v>
       </c>
       <c r="H2" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>44100</v>
@@ -6137,13 +6134,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>585</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2019</v>
@@ -6152,18 +6149,18 @@
         <v>45291</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>585</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2017</v>
@@ -6172,18 +6169,18 @@
         <v>44561</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>585</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>44561</v>
@@ -6191,13 +6188,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>585</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>44561</v>
@@ -6205,19 +6202,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>594</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>595</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6228,172 +6225,172 @@
         <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>596</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>597</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>599</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>600</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6404,168 +6401,168 @@
         <v>18</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>613</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>614</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>618</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>621</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6576,95 +6573,95 @@
         <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>585</v>
-      </c>
       <c r="E29" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>585</v>
-      </c>
       <c r="E30" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>585</v>
-      </c>
       <c r="E31" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>585</v>
-      </c>
       <c r="E32" s="0" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>585</v>
-      </c>
       <c r="E33" s="0" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6675,161 +6672,161 @@
         <v>18</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6840,161 +6837,161 @@
         <v>18</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J52" s="3" t="n">
         <v>44101</v>
@@ -7008,226 +7005,226 @@
         <v>18</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="E64" s="0" t="s">
         <v>667</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>668</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7238,155 +7235,155 @@
         <v>18</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E74" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="680">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2248,12 +2248,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H100" activeCellId="0" sqref="H100"/>
+      <selection pane="bottomLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -3072,6 +3072,9 @@
       </c>
       <c r="F31" s="0" t="s">
         <v>122</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>155</v>
@@ -5343,7 +5346,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -6059,7 +6062,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="680">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2250,10 +2250,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -3026,6 +3026,9 @@
       </c>
       <c r="F29" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>145</v>
@@ -5346,7 +5349,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5593,10 +5596,10 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="2" t="n">
         <v>9268</v>
       </c>
     </row>
@@ -5617,34 +5620,34 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="2" t="n">
         <v>8282</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="2" t="n">
         <v>8217</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="2" t="n">
         <v>8216</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="2" t="n">
         <v>8036</v>
       </c>
     </row>
@@ -5657,10 +5660,10 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="2" t="n">
         <v>7806</v>
       </c>
     </row>
@@ -5705,18 +5708,18 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="2" t="n">
         <v>5770</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="2" t="n">
         <v>5424</v>
       </c>
     </row>
@@ -5729,10 +5732,10 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="2" t="n">
         <v>4903</v>
       </c>
     </row>
@@ -5753,10 +5756,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="2" t="n">
         <v>4537</v>
       </c>
     </row>
@@ -5833,10 +5836,10 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="2" t="n">
         <v>2921</v>
       </c>
     </row>
@@ -5849,18 +5852,18 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="2" t="n">
         <v>2563</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="2" t="n">
         <v>2477</v>
       </c>
     </row>
@@ -5905,10 +5908,10 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="2" t="n">
         <v>1872</v>
       </c>
     </row>
@@ -5921,18 +5924,18 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="2" t="n">
         <v>1731</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="2" t="n">
         <v>1675</v>
       </c>
     </row>
@@ -5969,10 +5972,10 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="2" t="n">
         <v>1388</v>
       </c>
     </row>
@@ -5993,10 +5996,10 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="2" t="n">
         <v>1141</v>
       </c>
     </row>
@@ -6033,10 +6036,10 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="2" t="n">
         <v>363</v>
       </c>
     </row>
@@ -6062,7 +6065,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -2248,12 +2248,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -3077,7 +3077,7 @@
         <v>122</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>155</v>
@@ -5349,7 +5349,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -6065,7 +6065,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="680">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2248,12 +2248,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="H100" activeCellId="0" sqref="H100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -3052,6 +3052,9 @@
       </c>
       <c r="F30" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>150</v>
@@ -5349,7 +5352,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -6065,7 +6068,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="680">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2248,12 +2248,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H100" activeCellId="0" sqref="H100"/>
+      <selection pane="bottomLeft" activeCell="H106" activeCellId="0" sqref="H106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -4623,6 +4623,9 @@
       </c>
       <c r="F100" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="I100" s="0" t="s">
         <v>414</v>
@@ -5349,10 +5352,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5471,10 +5474,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>16428</v>
       </c>
     </row>
@@ -6068,7 +6071,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="680">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2248,12 +2248,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H106" activeCellId="0" sqref="H106"/>
+      <selection pane="bottomLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -4749,6 +4749,9 @@
       </c>
       <c r="F106" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="I106" s="0" t="s">
         <v>433</v>
@@ -5352,10 +5355,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5482,10 +5485,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>15945</v>
       </c>
     </row>
@@ -6071,7 +6074,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="680">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2248,12 +2248,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+      <selection pane="bottomLeft" activeCell="H46" activeCellId="0" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -5247,6 +5247,9 @@
       </c>
       <c r="F130" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="I130" s="0" t="s">
         <v>510</v>
@@ -5355,10 +5358,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5493,10 +5496,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>15292</v>
       </c>
     </row>
@@ -6074,7 +6077,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="680">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2248,12 +2248,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H46" activeCellId="0" sqref="H46"/>
+      <selection pane="bottomLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -3423,6 +3423,9 @@
       </c>
       <c r="F46" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>219</v>
@@ -5358,10 +5361,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5504,10 +5507,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>14885</v>
       </c>
     </row>
@@ -6077,7 +6080,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="680">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2248,12 +2248,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="H80" activeCellId="0" sqref="H80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -3104,6 +3104,9 @@
       </c>
       <c r="F32" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>160</v>
@@ -5364,7 +5367,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -6080,7 +6083,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="680">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2248,12 +2248,12 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H80" activeCellId="0" sqref="H80"/>
+      <selection pane="bottomLeft" activeCell="H97" activeCellId="0" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -4196,6 +4196,9 @@
       </c>
       <c r="F80" s="0" t="s">
         <v>198</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="I80" s="0" t="s">
         <v>348</v>
@@ -5364,10 +5367,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5518,10 +5521,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>14816</v>
       </c>
     </row>
@@ -6083,7 +6086,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="710">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -51,6 +51,9 @@
     <t xml:space="preserve">Spider name</t>
   </si>
   <si>
+    <t xml:space="preserve">Government</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALEPPO</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
     <t xml:space="preserve">aleppo_t</t>
   </si>
   <si>
+    <t xml:space="preserve">5 Commissioners, 1 tax collector</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASPINWALL</t>
   </si>
   <si>
@@ -96,6 +102,9 @@
     <t xml:space="preserve">aspinwall_b</t>
   </si>
   <si>
+    <t xml:space="preserve">9 Member Council, 1 Mayor, 1 Tax Collector</t>
+  </si>
+  <si>
     <t xml:space="preserve">AVALON</t>
   </si>
   <si>
@@ -111,6 +120,9 @@
     <t xml:space="preserve">avalon_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 tax collector, council in 3 wards 3 members each</t>
+  </si>
+  <si>
     <t xml:space="preserve">BALDWIN</t>
   </si>
   <si>
@@ -135,6 +147,9 @@
     <t xml:space="preserve">baldwin_b</t>
   </si>
   <si>
+    <t xml:space="preserve">7 member council, 1 mayor, 1 tax collector</t>
+  </si>
+  <si>
     <t xml:space="preserve">BELL ACRES</t>
   </si>
   <si>
@@ -162,6 +177,9 @@
     <t xml:space="preserve">bellevue_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 tax collector, council in 3 wards 3 members each, 3 auditors</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEN AVON</t>
   </si>
   <si>
@@ -207,6 +225,9 @@
     <t xml:space="preserve">bethel_park_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 mayor, council in 9 wards 1 member each</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLAWNOX</t>
   </si>
   <si>
@@ -234,6 +255,9 @@
     <t xml:space="preserve">brackenridge_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 tax collector, council in 3 wards 2 members each</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRADDOCK</t>
   </si>
   <si>
@@ -261,6 +285,9 @@
     <t xml:space="preserve">braddock_hills_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 tax collector, 7 member council</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRADFORD WOODS</t>
   </si>
   <si>
@@ -318,6 +345,9 @@
     <t xml:space="preserve">carnegie_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 tax collector, council in 2 wards 3 members each</t>
+  </si>
+  <si>
     <t xml:space="preserve">CASTLE SHANNON</t>
   </si>
   <si>
@@ -396,6 +426,9 @@
     <t xml:space="preserve">clairton_c</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, council in 4 wards 1 member each</t>
+  </si>
+  <si>
     <t xml:space="preserve">COLLIER</t>
   </si>
   <si>
@@ -423,6 +456,9 @@
     <t xml:space="preserve">coraopolis_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 tax collector, council in 4 wards 2 members each</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRAFTON</t>
   </si>
   <si>
@@ -450,6 +486,9 @@
     <t xml:space="preserve">crescent_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Tax collector, board in 2 wards 1 commissioner each and 3 at-large</t>
+  </si>
+  <si>
     <t xml:space="preserve">DORMONT</t>
   </si>
   <si>
@@ -477,6 +516,9 @@
     <t xml:space="preserve">dravosburg_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 tax collector, 5 member council</t>
+  </si>
+  <si>
     <t xml:space="preserve">DUQUESNE</t>
   </si>
   <si>
@@ -492,6 +534,9 @@
     <t xml:space="preserve">duquesne_c</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 controller, 1 treasurer, 4 member council</t>
+  </si>
+  <si>
     <t xml:space="preserve">EAST DEER</t>
   </si>
   <si>
@@ -507,6 +552,9 @@
     <t xml:space="preserve">east_deer_t</t>
   </si>
   <si>
+    <t xml:space="preserve">3 auditors, 1 tax collector, board in 2 wards 1 commissioner each and 3 at-large</t>
+  </si>
+  <si>
     <t xml:space="preserve">EAST MCKEESPORT</t>
   </si>
   <si>
@@ -534,6 +582,9 @@
     <t xml:space="preserve">east_pittsburgh_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 tax collector, council in 3 wards 1 member each and 2 at-large</t>
+  </si>
+  <si>
     <t xml:space="preserve">EDGEWOOD</t>
   </si>
   <si>
@@ -759,6 +810,9 @@
     <t xml:space="preserve">hampton_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Controller, 5 member council</t>
+  </si>
+  <si>
     <t xml:space="preserve">HARMAR</t>
   </si>
   <si>
@@ -837,6 +891,9 @@
     <t xml:space="preserve">indiana_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Tax collector, board of 5 districts 1 supervisor each, 3 auditors</t>
+  </si>
+  <si>
     <t xml:space="preserve">INGRAM</t>
   </si>
   <si>
@@ -945,6 +1002,9 @@
     <t xml:space="preserve">mccandless_t</t>
   </si>
   <si>
+    <t xml:space="preserve">council in 7 wards 1 member each</t>
+  </si>
+  <si>
     <t xml:space="preserve">MCDONALD</t>
   </si>
   <si>
@@ -978,6 +1038,9 @@
     <t xml:space="preserve">mckeesport_c</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 controller, 7 member council</t>
+  </si>
+  <si>
     <t xml:space="preserve">MILLVALE</t>
   </si>
   <si>
@@ -999,6 +1062,9 @@
     <t xml:space="preserve">monroeville_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 tax collector, council in 7 wards 1 member each</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOON</t>
   </si>
   <si>
@@ -1008,6 +1074,9 @@
     <t xml:space="preserve">moon_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 tax collector, 5 supervisors, 3 auditors</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOUNT LEBANON</t>
   </si>
   <si>
@@ -1023,6 +1092,9 @@
     <t xml:space="preserve">mount_lebanon_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Treasurer, board in 5 wards 1 commissioner each</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOUNT OLIVER</t>
   </si>
   <si>
@@ -1071,6 +1143,9 @@
     <t xml:space="preserve">north_fayette_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Tax collector, 3 supervisors, 3 auditors</t>
+  </si>
+  <si>
     <t xml:space="preserve">NORTH VERSAILLES</t>
   </si>
   <si>
@@ -1131,6 +1206,9 @@
     <t xml:space="preserve">penn_hills_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 controller, 4 member council</t>
+  </si>
+  <si>
     <t xml:space="preserve">PENNSBURY VILLAGE</t>
   </si>
   <si>
@@ -1173,6 +1251,9 @@
     <t xml:space="preserve">pittsburgh_c</t>
   </si>
   <si>
+    <t xml:space="preserve">1 mayor, 1 controller, council in 9 districts 1 member each</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLEASANT HILLS</t>
   </si>
   <si>
@@ -1251,6 +1332,9 @@
     <t xml:space="preserve">ross_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 tax collector, board in 9 wards 1 commissioner each</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROSSLYN FARMS</t>
   </si>
   <si>
@@ -1305,6 +1389,9 @@
     <t xml:space="preserve">shaler_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 tax collector, board in 7 wards 1 commissioner each</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHARPSBURG</t>
   </si>
   <si>
@@ -1429,6 +1516,9 @@
   </si>
   <si>
     <t xml:space="preserve">upper_st_clair_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">board in 5 wards 1 commissioner each and 2 at-large</t>
   </si>
   <si>
     <t xml:space="preserve">VERONA</t>
@@ -2151,12 +2241,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2245,15 +2339,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="H97" activeCellId="0" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -2293,2998 +2387,3163 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I17" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>127</v>
+        <v>138</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>132</v>
+        <v>143</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>141</v>
+        <v>153</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>145</v>
+        <v>158</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>150</v>
+        <v>163</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>155</v>
+        <v>169</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>160</v>
+        <v>175</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>165</v>
+        <v>181</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>169</v>
+        <v>185</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>219</v>
+        <v>236</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>244</v>
+        <v>261</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>270</v>
+        <v>288</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>306</v>
+        <v>325</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>317</v>
+        <v>337</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>324</v>
+        <v>345</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>327</v>
+        <v>349</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>332</v>
+        <v>355</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>345</v>
+        <v>369</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>348</v>
+        <v>372</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>368</v>
+        <v>393</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>371</v>
+        <v>397</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>382</v>
+        <v>408</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>388</v>
+        <v>415</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>403</v>
+        <v>430</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>408</v>
+        <v>435</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>414</v>
+        <v>442</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>426</v>
+        <v>454</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>433</v>
+        <v>462</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>468</v>
+        <v>497</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>510</v>
+        <v>540</v>
+      </c>
+      <c r="J130" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -5370,7 +5629,7 @@
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5378,159 +5637,159 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B2" s="2" t="n">
+      <c r="A2" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>300286</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B3" s="2" t="n">
+      <c r="A3" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>40807</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="A4" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>32345</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="A5" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>32124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B6" s="2" t="n">
+      <c r="A6" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>30473</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B7" s="2" t="n">
+      <c r="A7" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>28193</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B8" s="2" t="n">
+      <c r="A8" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="3" t="n">
         <v>27720</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B9" s="2" t="n">
+      <c r="A9" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B9" s="3" t="n">
         <v>27380</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B10" s="2" t="n">
+      <c r="A10" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B10" s="3" t="n">
         <v>27087</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B11" s="2" t="n">
+      <c r="A11" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" s="3" t="n">
         <v>25437</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B12" s="2" t="n">
+      <c r="A12" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B12" s="3" t="n">
         <v>19744</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B13" s="2" t="n">
+      <c r="A13" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B13" s="3" t="n">
         <v>19554</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="2" t="n">
+      <c r="A14" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="3" t="n">
         <v>18181</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B15" s="2" t="n">
+      <c r="A15" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B15" s="3" t="n">
         <v>16428</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B16" s="2" t="n">
+      <c r="A16" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" s="3" t="n">
         <v>15945</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B17" s="2" t="n">
+      <c r="A17" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B17" s="3" t="n">
         <v>15292</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="B18" s="2" t="n">
+      <c r="A18" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B18" s="3" t="n">
         <v>14885</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B19" s="2" t="n">
+      <c r="A19" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="3" t="n">
         <v>14816</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>13850</v>
@@ -5538,7 +5797,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>13741</v>
@@ -5546,7 +5805,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>13628</v>
@@ -5554,7 +5813,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>13393</v>
@@ -5562,7 +5821,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>11986</v>
@@ -5570,7 +5829,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>11373</v>
@@ -5578,7 +5837,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>11101</v>
@@ -5586,7 +5845,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>11006</v>
@@ -5594,7 +5853,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>10236</v>
@@ -5602,7 +5861,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>9924</v>
@@ -5610,23 +5869,23 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>9598</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B31" s="2" t="n">
+      <c r="A31" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B31" s="3" t="n">
         <v>9268</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>8799</v>
@@ -5634,63 +5893,63 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>8647</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B34" s="2" t="n">
+      <c r="A34" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B34" s="3" t="n">
         <v>8282</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" s="2" t="n">
+      <c r="A35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="3" t="n">
         <v>8217</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B36" s="2" t="n">
+      <c r="A36" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B36" s="3" t="n">
         <v>8216</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B37" s="2" t="n">
+      <c r="A37" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B37" s="3" t="n">
         <v>8036</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>8026</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B39" s="2" t="n">
+      <c r="A39" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B39" s="3" t="n">
         <v>7806</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>6925</v>
@@ -5698,7 +5957,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>6541</v>
@@ -5706,7 +5965,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>6298</v>
@@ -5714,7 +5973,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>6121</v>
@@ -5722,47 +5981,47 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>6023</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B45" s="2" t="n">
+      <c r="A45" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B45" s="3" t="n">
         <v>5770</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B46" s="2" t="n">
+      <c r="A46" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B46" s="3" t="n">
         <v>5424</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>5076</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B48" s="2" t="n">
+      <c r="A48" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B48" s="3" t="n">
         <v>4903</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>544</v>
+        <v>574</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>4832</v>
@@ -5770,23 +6029,23 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>4669</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B51" s="2" t="n">
+      <c r="A51" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B51" s="3" t="n">
         <v>4537</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>4366</v>
@@ -5794,7 +6053,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4315</v>
@@ -5802,7 +6061,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>3791</v>
@@ -5810,7 +6069,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>3662</v>
@@ -5818,7 +6077,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3308</v>
@@ -5826,7 +6085,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3149</v>
@@ -5834,7 +6093,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>3039</v>
@@ -5842,7 +6101,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>3007</v>
@@ -5850,47 +6109,47 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3004</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B61" s="2" t="n">
+      <c r="A61" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B61" s="3" t="n">
         <v>2921</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2693</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B63" s="2" t="n">
+      <c r="A63" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="3" t="n">
         <v>2563</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64" s="2" t="n">
+      <c r="A64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="3" t="n">
         <v>2477</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2411</v>
@@ -5898,7 +6157,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2350</v>
@@ -5906,7 +6165,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2111</v>
@@ -5914,7 +6173,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2042</v>
@@ -5922,47 +6181,47 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2027</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="2" t="n">
+      <c r="A70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="3" t="n">
         <v>1872</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>1757</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B72" s="2" t="n">
+      <c r="A72" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B72" s="3" t="n">
         <v>1731</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B73" s="2" t="n">
+      <c r="A73" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B73" s="3" t="n">
         <v>1675</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1647</v>
@@ -5970,7 +6229,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1583</v>
@@ -5978,7 +6237,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1580</v>
@@ -5986,23 +6245,23 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1476</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="B78" s="2" t="n">
+      <c r="A78" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B78" s="3" t="n">
         <v>1388</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1235</v>
@@ -6010,23 +6269,23 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1157</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B81" s="2" t="n">
+      <c r="A81" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B81" s="3" t="n">
         <v>1141</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1022</v>
@@ -6034,7 +6293,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>719</v>
@@ -6042,7 +6301,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>557</v>
@@ -6050,17 +6309,17 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>538</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B86" s="2" t="n">
+      <c r="A86" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B86" s="3" t="n">
         <v>363</v>
       </c>
     </row>
@@ -6086,7 +6345,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>
@@ -6097,1320 +6356,1320 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>44561</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="J2" s="3" t="n">
+        <v>617</v>
+      </c>
+      <c r="J2" s="4" t="n">
         <v>44100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="4" t="n">
         <v>45291</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>44561</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="G5" s="3" t="n">
+        <v>621</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>44561</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="G6" s="3" t="n">
+        <v>622</v>
+      </c>
+      <c r="G6" s="4" t="n">
         <v>44561</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>597</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>608</v>
+        <v>638</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>609</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>611</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>628</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>630</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>631</v>
+        <v>661</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>641</v>
+        <v>671</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>646</v>
+        <v>676</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>651</v>
+        <v>681</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="J52" s="3" t="n">
+        <v>683</v>
+      </c>
+      <c r="J52" s="4" t="n">
         <v>44101</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>655</v>
+        <v>685</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>656</v>
+        <v>686</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>657</v>
+        <v>687</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>658</v>
+        <v>688</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>659</v>
+        <v>689</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>661</v>
+        <v>691</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>662</v>
+        <v>692</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>665</v>
+        <v>695</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>667</v>
+        <v>697</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>669</v>
+        <v>699</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>670</v>
+        <v>700</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>673</v>
+        <v>703</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>674</v>
+        <v>704</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="720">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -624,6 +624,9 @@
     <t xml:space="preserve">elizabeth_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 tax collector, board in 7 wards 1 commissioner each</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elizabeth Borough</t>
   </si>
   <si>
@@ -675,6 +678,9 @@
     <t xml:space="preserve">fawn_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 tax collector, 5 supervisors, 3 auditors</t>
+  </si>
+  <si>
     <t xml:space="preserve">FINDLAY</t>
   </si>
   <si>
@@ -690,6 +696,9 @@
     <t xml:space="preserve">findlay_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Tax collector, 3 supervisors, 3 auditors</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOREST HILLS</t>
   </si>
   <si>
@@ -786,6 +795,9 @@
     <t xml:space="preserve">glenfield_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 tax collector, 7 member council, 3 auditors</t>
+  </si>
+  <si>
     <t xml:space="preserve">GREEN TREE</t>
   </si>
   <si>
@@ -798,6 +810,9 @@
     <t xml:space="preserve">green_tree_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 7 member council</t>
+  </si>
+  <si>
     <t xml:space="preserve">HAMPTON</t>
   </si>
   <si>
@@ -825,6 +840,9 @@
     <t xml:space="preserve">harmar_t</t>
   </si>
   <si>
+    <t xml:space="preserve">5 supervisors, 1 tax collector, 3 auditors</t>
+  </si>
+  <si>
     <t xml:space="preserve">HARRISON</t>
   </si>
   <si>
@@ -837,6 +855,9 @@
     <t xml:space="preserve">harrison_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 tax collector, board in 5 wards 1 commissioner each</t>
+  </si>
+  <si>
     <t xml:space="preserve">HAYSVILLE</t>
   </si>
   <si>
@@ -876,6 +897,9 @@
     <t xml:space="preserve">homestead_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 mayor, 1 tax collector, council in 3 wards 2 members each and 1 at-large</t>
+  </si>
+  <si>
     <t xml:space="preserve">INDIANA</t>
   </si>
   <si>
@@ -936,6 +960,9 @@
     <t xml:space="preserve">kennedy_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Tax collector, 5 commissioners</t>
+  </si>
+  <si>
     <t xml:space="preserve">KILBUCK</t>
   </si>
   <si>
@@ -948,6 +975,9 @@
     <t xml:space="preserve">kilbuck_t</t>
   </si>
   <si>
+    <t xml:space="preserve">3 supervisors, 3 auditors, 1 tax collector</t>
+  </si>
+  <si>
     <t xml:space="preserve">LEET</t>
   </si>
   <si>
@@ -1029,6 +1059,9 @@
     <t xml:space="preserve">mckees_rocks_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 tax collector, council in 3 wards 3 members each, 1 controller</t>
+  </si>
+  <si>
     <t xml:space="preserve">MCKEESPORT</t>
   </si>
   <si>
@@ -1074,9 +1107,6 @@
     <t xml:space="preserve">moon_t</t>
   </si>
   <si>
-    <t xml:space="preserve">1 tax collector, 5 supervisors, 3 auditors</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOUNT LEBANON</t>
   </si>
   <si>
@@ -1125,6 +1155,9 @@
     <t xml:space="preserve">neville_t</t>
   </si>
   <si>
+    <t xml:space="preserve">board in 3 wards 1 commissioner each and 2 at-large, 1 tax collector</t>
+  </si>
+  <si>
     <t xml:space="preserve">NORTH BRADDOCK</t>
   </si>
   <si>
@@ -1143,9 +1176,6 @@
     <t xml:space="preserve">north_fayette_t</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Tax collector, 3 supervisors, 3 auditors</t>
-  </si>
-  <si>
     <t xml:space="preserve">NORTH VERSAILLES</t>
   </si>
   <si>
@@ -1389,9 +1419,6 @@
     <t xml:space="preserve">shaler_t</t>
   </si>
   <si>
-    <t xml:space="preserve">1 tax collector, board in 7 wards 1 commissioner each</t>
-  </si>
-  <si>
     <t xml:space="preserve">SHARPSBURG</t>
   </si>
   <si>
@@ -1633,6 +1660,9 @@
   </si>
   <si>
     <t xml:space="preserve">wilkins_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">board in 2 wards 1 commissioner each and 3 at-large, 1 tax collector</t>
   </si>
   <si>
     <t xml:space="preserve">WILKINSBURG</t>
@@ -2342,12 +2372,12 @@
   <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H97" activeCellId="0" sqref="H97"/>
+      <selection pane="bottomLeft" activeCell="J82" activeCellId="0" sqref="J82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -3376,6 +3406,9 @@
       <c r="I35" s="0" t="s">
         <v>190</v>
       </c>
+      <c r="J35" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -3399,6 +3432,9 @@
       <c r="I36" s="0" t="s">
         <v>194</v>
       </c>
+      <c r="J36" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -3422,6 +3458,9 @@
       <c r="I37" s="0" t="s">
         <v>199</v>
       </c>
+      <c r="J37" s="0" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -3431,194 +3470,218 @@
         <v>20</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>197</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>74</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>80</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>197</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>90</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>24</v>
@@ -3627,7 +3690,7 @@
         <v>16</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>77</v>
@@ -3635,111 +3698,123 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>173</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>110</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>24</v>
@@ -3748,27 +3823,30 @@
         <v>49</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>49</v>
@@ -3777,257 +3855,284 @@
         <v>16</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>119</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>266</v>
+        <v>271</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>74</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>274</v>
+        <v>281</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>99</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>299</v>
+        <v>307</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>54</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>307</v>
+        <v>316</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>13</v>
@@ -4036,18 +4141,21 @@
         <v>15</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>310</v>
+        <v>320</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>13</v>
@@ -4056,78 +4164,90 @@
         <v>24</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>313</v>
+        <v>323</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>316</v>
+        <v>326</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>319</v>
+        <v>329</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>90</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>322</v>
+        <v>332</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>90</v>
@@ -4142,61 +4262,67 @@
         <v>16</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>330</v>
+        <v>340</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>334</v>
+        <v>344</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>128</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>161</v>
@@ -4208,44 +4334,47 @@
         <v>49</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>341</v>
+        <v>352</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>62</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>24</v>
@@ -4257,53 +4386,53 @@
         <v>16</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>151</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>121</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>350</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>15</v>
@@ -4315,61 +4444,67 @@
         <v>16</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>360</v>
+        <v>370</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>363</v>
+        <v>373</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>141</v>
@@ -4378,18 +4513,21 @@
         <v>15</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>366</v>
+        <v>376</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>80</v>
@@ -4398,7 +4536,7 @@
         <v>24</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>32</v>
@@ -4406,39 +4544,39 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>121</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>373</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>179</v>
@@ -4447,18 +4585,18 @@
         <v>15</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>22</v>
@@ -4470,81 +4608,81 @@
         <v>49</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F83" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>54</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>62</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>15</v>
@@ -4556,24 +4694,24 @@
         <v>16</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>24</v>
@@ -4582,7 +4720,7 @@
         <v>16</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>87</v>
@@ -4590,62 +4728,65 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>49</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>404</v>
+        <v>414</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>128</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>49</v>
@@ -4654,44 +4795,44 @@
         <v>16</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>24</v>
@@ -4700,7 +4841,7 @@
         <v>16</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="J92" s="0" t="s">
         <v>87</v>
@@ -4708,33 +4849,33 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>80</v>
@@ -4743,70 +4884,70 @@
         <v>24</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>49</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>18</v>
@@ -4814,19 +4955,19 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>15</v>
@@ -4835,21 +4976,21 @@
         <v>16</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>104</v>
@@ -4858,18 +4999,18 @@
         <v>24</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>99</v>
@@ -4881,21 +5022,21 @@
         <v>16</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>13</v>
@@ -4904,18 +5045,18 @@
         <v>24</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>13</v>
@@ -4924,18 +5065,18 @@
         <v>24</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>13</v>
@@ -4944,21 +5085,21 @@
         <v>24</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>15</v>
@@ -4967,21 +5108,21 @@
         <v>16</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>455</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>22</v>
@@ -4990,21 +5131,21 @@
         <v>24</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>15</v>
@@ -5013,7 +5154,7 @@
         <v>16</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>18</v>
@@ -5021,33 +5162,33 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>161</v>
@@ -5056,18 +5197,18 @@
         <v>15</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>119</v>
@@ -5076,18 +5217,18 @@
         <v>15</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>119</v>
@@ -5096,38 +5237,38 @@
         <v>24</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>80</v>
@@ -5136,18 +5277,18 @@
         <v>24</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>74</v>
@@ -5156,58 +5297,58 @@
         <v>24</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="F115" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>80</v>
@@ -5216,21 +5357,21 @@
         <v>24</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>62</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>15</v>
@@ -5242,41 +5383,41 @@
         <v>16</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>161</v>
@@ -5285,164 +5426,167 @@
         <v>24</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>179</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>173</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>49</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>517</v>
+        <v>526</v>
+      </c>
+      <c r="J123" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>161</v>
@@ -5451,18 +5595,18 @@
         <v>24</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>35</v>
@@ -5474,18 +5618,18 @@
         <v>49</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>80</v>
@@ -5494,21 +5638,24 @@
         <v>15</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>536</v>
+        <v>545</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>24</v>
@@ -5517,7 +5664,7 @@
         <v>121</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="J130" s="0" t="s">
         <v>32</v>
@@ -5525,25 +5672,28 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>179</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>544</v>
+        <v>554</v>
+      </c>
+      <c r="J131" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -5629,7 +5779,7 @@
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5637,15 +5787,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>300286</v>
@@ -5653,7 +5803,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>40807</v>
@@ -5661,7 +5811,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>32345</v>
@@ -5669,7 +5819,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>32124</v>
@@ -5677,7 +5827,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>30473</v>
@@ -5685,7 +5835,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>28193</v>
@@ -5693,7 +5843,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>27720</v>
@@ -5701,7 +5851,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>27380</v>
@@ -5709,7 +5859,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>27087</v>
@@ -5717,7 +5867,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>25437</v>
@@ -5725,7 +5875,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>19744</v>
@@ -5733,7 +5883,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>19554</v>
@@ -5741,7 +5891,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>18181</v>
@@ -5749,7 +5899,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>16428</v>
@@ -5757,7 +5907,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>15945</v>
@@ -5765,7 +5915,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>15292</v>
@@ -5773,7 +5923,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>14885</v>
@@ -5781,7 +5931,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>14816</v>
@@ -5789,7 +5939,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>13850</v>
@@ -5797,7 +5947,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>13741</v>
@@ -5805,7 +5955,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>13628</v>
@@ -5813,7 +5963,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>13393</v>
@@ -5821,7 +5971,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>11986</v>
@@ -5829,7 +5979,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>11373</v>
@@ -5837,7 +5987,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>11101</v>
@@ -5845,7 +5995,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>11006</v>
@@ -5853,7 +6003,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>10236</v>
@@ -5861,7 +6011,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>9924</v>
@@ -5869,7 +6019,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>9598</v>
@@ -5877,7 +6027,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>9268</v>
@@ -5885,7 +6035,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>8799</v>
@@ -5893,7 +6043,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>8647</v>
@@ -5901,7 +6051,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>8282</v>
@@ -5917,7 +6067,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>8216</v>
@@ -5925,7 +6075,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>8036</v>
@@ -5933,7 +6083,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>8026</v>
@@ -5941,7 +6091,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>7806</v>
@@ -5949,7 +6099,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>6925</v>
@@ -5957,7 +6107,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>6541</v>
@@ -5965,7 +6115,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>6298</v>
@@ -5973,7 +6123,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>6121</v>
@@ -5981,7 +6131,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>6023</v>
@@ -5989,7 +6139,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>5770</v>
@@ -5997,7 +6147,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>5424</v>
@@ -6005,7 +6155,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>5076</v>
@@ -6013,7 +6163,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>4903</v>
@@ -6021,7 +6171,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>4832</v>
@@ -6029,7 +6179,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>4669</v>
@@ -6037,7 +6187,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>4537</v>
@@ -6045,7 +6195,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>4366</v>
@@ -6053,7 +6203,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4315</v>
@@ -6061,7 +6211,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>3791</v>
@@ -6069,7 +6219,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>3662</v>
@@ -6077,7 +6227,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3308</v>
@@ -6085,7 +6235,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3149</v>
@@ -6093,7 +6243,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>3039</v>
@@ -6101,7 +6251,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>3007</v>
@@ -6109,7 +6259,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3004</v>
@@ -6117,7 +6267,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>2921</v>
@@ -6125,7 +6275,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2693</v>
@@ -6149,7 +6299,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2411</v>
@@ -6157,7 +6307,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2350</v>
@@ -6165,7 +6315,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2111</v>
@@ -6173,7 +6323,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2042</v>
@@ -6181,7 +6331,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2027</v>
@@ -6197,7 +6347,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>1757</v>
@@ -6205,7 +6355,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B72" s="3" t="n">
         <v>1731</v>
@@ -6213,7 +6363,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="B73" s="3" t="n">
         <v>1675</v>
@@ -6221,7 +6371,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1647</v>
@@ -6229,7 +6379,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1583</v>
@@ -6237,7 +6387,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1580</v>
@@ -6245,7 +6395,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1476</v>
@@ -6253,7 +6403,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B78" s="3" t="n">
         <v>1388</v>
@@ -6261,7 +6411,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1235</v>
@@ -6269,7 +6419,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1157</v>
@@ -6277,7 +6427,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B81" s="3" t="n">
         <v>1141</v>
@@ -6285,7 +6435,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1022</v>
@@ -6293,7 +6443,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>719</v>
@@ -6301,7 +6451,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>557</v>
@@ -6309,7 +6459,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>538</v>
@@ -6317,7 +6467,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="B86" s="3" t="n">
         <v>363</v>
@@ -6345,7 +6495,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>
@@ -6356,34 +6506,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6394,13 +6544,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2017</v>
@@ -6409,10 +6559,10 @@
         <v>44561</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>44100</v>
@@ -6420,13 +6570,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2019</v>
@@ -6435,18 +6585,18 @@
         <v>45291</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2017</v>
@@ -6455,18 +6605,18 @@
         <v>44561</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>44561</v>
@@ -6474,13 +6624,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>44561</v>
@@ -6488,19 +6638,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6511,172 +6661,172 @@
         <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,168 +6837,168 @@
         <v>20</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6859,95 +7009,95 @@
         <v>11</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6958,161 +7108,161 @@
         <v>20</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7123,161 +7273,161 @@
         <v>20</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="J52" s="4" t="n">
         <v>44101</v>
@@ -7291,226 +7441,226 @@
         <v>20</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,155 +7671,155 @@
         <v>20</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="730">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -51,6 +51,9 @@
     <t xml:space="preserve">Spider name</t>
   </si>
   <si>
+    <t xml:space="preserve">Population (2010?)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Government</t>
   </si>
   <si>
@@ -915,7 +918,7 @@
     <t xml:space="preserve">indiana_t</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Tax collector, board of 5 districts 1 supervisor each, 3 auditors</t>
+    <t xml:space="preserve">1 Tax collector, board in 5 districts 1 supervisor each, 3 auditors</t>
   </si>
   <si>
     <t xml:space="preserve">INGRAM</t>
@@ -1194,6 +1197,9 @@
     <t xml:space="preserve">o_hara_t</t>
   </si>
   <si>
+    <t xml:space="preserve">3 auditors, council in 5 wards 1 member each and 2 at-large, 1 treasurer</t>
+  </si>
+  <si>
     <t xml:space="preserve">OAKDALE</t>
   </si>
   <si>
@@ -1224,6 +1230,9 @@
     <t xml:space="preserve">ohio_t</t>
   </si>
   <si>
+    <t xml:space="preserve">3 supervisors, 1 tax collector</t>
+  </si>
+  <si>
     <t xml:space="preserve">PENN HILLS</t>
   </si>
   <si>
@@ -1260,6 +1269,9 @@
     <t xml:space="preserve">pine_t</t>
   </si>
   <si>
+    <t xml:space="preserve">5 supervisors</t>
+  </si>
+  <si>
     <t xml:space="preserve">PITCAIRN</t>
   </si>
   <si>
@@ -1320,6 +1332,9 @@
     <t xml:space="preserve">rankin_b</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Mayor, 1 tax collector, council in 3 wards 2 members each and 1 at-large</t>
+  </si>
+  <si>
     <t xml:space="preserve">RESERVE</t>
   </si>
   <si>
@@ -1329,6 +1344,9 @@
     <t xml:space="preserve">reserve_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 tax collector, board in 4 wards 1 commissioner each and 1 at-large</t>
+  </si>
+  <si>
     <t xml:space="preserve">RICHLAND</t>
   </si>
   <si>
@@ -1338,6 +1356,9 @@
     <t xml:space="preserve">richland_t</t>
   </si>
   <si>
+    <t xml:space="preserve">board in 4 districts 1 supervisor each and 1 at-large</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROBINSON</t>
   </si>
   <si>
@@ -1452,6 +1473,9 @@
     <t xml:space="preserve">south_park_t</t>
   </si>
   <si>
+    <t xml:space="preserve">3 auditors, 3 supervisors, 1 tax collector</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOUTH VERSAILLES</t>
   </si>
   <si>
@@ -1485,6 +1509,9 @@
     <t xml:space="preserve">stowe_t</t>
   </si>
   <si>
+    <t xml:space="preserve">1 tax collector, 7 commissioners</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWISSVALE</t>
   </si>
   <si>
@@ -1585,6 +1612,9 @@
   </si>
   <si>
     <t xml:space="preserve">west_deer_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">board in 4 districts 1 supervisor each and 1 at-large, 1 tax collector, 3 auditors</t>
   </si>
   <si>
     <t xml:space="preserve">WEST ELIZABETH</t>
@@ -2369,15 +2399,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J82" activeCellId="0" sqref="J82"/>
+      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -2387,6 +2417,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,3280 +2451,3406 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1826</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="0" t="s">
         <v>26</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2756</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="0" t="s">
         <v>32</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>4626</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="0" t="s">
         <v>41</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="0" t="s">
         <v>51</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="0" t="s">
         <v>67</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>41</v>
+        <v>72</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="0" t="s">
         <v>77</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="0" t="s">
         <v>87</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="0" t="s">
         <v>107</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>87</v>
+        <v>113</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>87</v>
+        <v>127</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="J24" s="0" t="s">
         <v>134</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>18</v>
+        <v>139</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J26" s="0" t="s">
         <v>144</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>87</v>
+        <v>149</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="J28" s="0" t="s">
         <v>154</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>87</v>
+        <v>159</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="J30" s="2" t="s">
         <v>164</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="J31" s="0" t="s">
         <v>170</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J32" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>87</v>
+        <v>182</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="J34" s="0" t="s">
         <v>186</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>87</v>
+        <v>191</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>87</v>
+        <v>195</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="J37" s="0" t="s">
         <v>200</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>87</v>
+        <v>204</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>87</v>
+        <v>208</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>32</v>
+        <v>213</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="J41" s="0" t="s">
         <v>218</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="J42" s="0" t="s">
         <v>224</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>87</v>
+        <v>229</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>87</v>
+        <v>236</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>77</v>
+        <v>240</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>224</v>
+        <v>244</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>87</v>
+        <v>249</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>87</v>
+        <v>253</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="J50" s="0" t="s">
         <v>257</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="J51" s="0" t="s">
         <v>262</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="J52" s="0" t="s">
         <v>267</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="J53" s="0" t="s">
         <v>272</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="J54" s="0" t="s">
         <v>277</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>87</v>
+        <v>282</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>164</v>
+        <v>286</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="J57" s="0" t="s">
         <v>291</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="J58" s="0" t="s">
         <v>297</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>87</v>
+        <v>303</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>87</v>
+        <v>308</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="J61" s="0" t="s">
         <v>312</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="J62" s="0" t="s">
         <v>317</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>18</v>
+        <v>321</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>87</v>
+        <v>324</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>87</v>
+        <v>327</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>164</v>
+        <v>330</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>272</v>
+        <v>333</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="J68" s="0" t="s">
         <v>336</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>87</v>
+        <v>341</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="J70" s="0" t="s">
         <v>345</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="J71" s="0" t="s">
         <v>349</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>87</v>
+        <v>353</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="J73" s="0" t="s">
         <v>357</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>218</v>
+        <v>361</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="J75" s="0" t="s">
         <v>366</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="J76" s="0" t="s">
-        <v>87</v>
+        <v>371</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>87</v>
+        <v>374</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>11229</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="J78" s="0" t="s">
         <v>377</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>32</v>
+        <v>381</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>224</v>
+        <v>384</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="J86" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>87</v>
+        <v>410</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="J89" s="0" t="s">
-        <v>87</v>
+        <v>418</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="J90" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>303587</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="J92" s="0" t="s">
-        <v>87</v>
+        <v>429</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>434</v>
+        <v>439</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>437</v>
+        <v>443</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="J97" s="0" t="s">
-        <v>18</v>
+        <v>447</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="J98" s="0" t="s">
-        <v>446</v>
+        <v>452</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>449</v>
+        <v>456</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="J100" s="0" t="s">
-        <v>446</v>
+        <v>459</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>455</v>
+        <v>462</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>458</v>
+        <v>465</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>461</v>
+        <v>468</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>200</v>
+        <v>471</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>467</v>
+        <v>474</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>18</v>
+        <v>478</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>475</v>
+        <v>482</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>478</v>
+        <v>486</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>481</v>
+        <v>489</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>483</v>
+        <v>491</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>486</v>
+        <v>494</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>489</v>
+        <v>498</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>492</v>
+        <v>501</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>495</v>
+        <v>504</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>499</v>
+        <v>508</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>502</v>
+        <v>511</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="J117" s="0" t="s">
-        <v>507</v>
+        <v>515</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>510</v>
+        <v>519</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>513</v>
+        <v>522</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>517</v>
+        <v>526</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>520</v>
+        <v>529</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>523</v>
+        <v>533</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="J123" s="0" t="s">
-        <v>87</v>
+        <v>536</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>530</v>
+        <v>540</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>533</v>
+        <v>543</v>
+      </c>
+      <c r="K125" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>536</v>
+        <v>546</v>
+      </c>
+      <c r="K126" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>539</v>
+        <v>549</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>542</v>
+        <v>552</v>
+      </c>
+      <c r="K128" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="J129" s="0" t="s">
-        <v>546</v>
+        <v>555</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="J130" s="0" t="s">
-        <v>32</v>
+        <v>560</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="J131" s="0" t="s">
-        <v>87</v>
+        <v>564</v>
+      </c>
+      <c r="K131" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5779,7 +5936,7 @@
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5787,15 +5944,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>300286</v>
@@ -5803,7 +5960,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>40807</v>
@@ -5811,7 +5968,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>32345</v>
@@ -5819,7 +5976,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>32124</v>
@@ -5827,7 +5984,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>30473</v>
@@ -5835,7 +5992,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>28193</v>
@@ -5843,7 +6000,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>27720</v>
@@ -5851,7 +6008,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>27380</v>
@@ -5859,7 +6016,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>27087</v>
@@ -5867,7 +6024,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>25437</v>
@@ -5875,7 +6032,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>19744</v>
@@ -5883,7 +6040,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>19554</v>
@@ -5891,7 +6048,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>18181</v>
@@ -5899,7 +6056,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>16428</v>
@@ -5907,7 +6064,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>15945</v>
@@ -5915,7 +6072,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>15292</v>
@@ -5923,7 +6080,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>14885</v>
@@ -5931,7 +6088,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>14816</v>
@@ -5939,7 +6096,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>13850</v>
@@ -5947,7 +6104,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>13741</v>
@@ -5955,7 +6112,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>13628</v>
@@ -5963,7 +6120,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>13393</v>
@@ -5971,7 +6128,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>11986</v>
@@ -5979,7 +6136,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>11373</v>
@@ -5987,7 +6144,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>11101</v>
@@ -5995,7 +6152,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>11006</v>
@@ -6003,7 +6160,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>10236</v>
@@ -6011,7 +6168,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>9924</v>
@@ -6019,7 +6176,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>9598</v>
@@ -6027,7 +6184,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>9268</v>
@@ -6035,7 +6192,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>8799</v>
@@ -6043,7 +6200,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>8647</v>
@@ -6051,7 +6208,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>8282</v>
@@ -6059,7 +6216,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>8217</v>
@@ -6067,7 +6224,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>8216</v>
@@ -6075,7 +6232,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>8036</v>
@@ -6083,7 +6240,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>8026</v>
@@ -6091,7 +6248,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>7806</v>
@@ -6099,7 +6256,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>6925</v>
@@ -6107,7 +6264,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>6541</v>
@@ -6115,7 +6272,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>6298</v>
@@ -6123,7 +6280,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>6121</v>
@@ -6131,7 +6288,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>6023</v>
@@ -6139,7 +6296,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>5770</v>
@@ -6147,7 +6304,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>5424</v>
@@ -6155,7 +6312,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>5076</v>
@@ -6163,7 +6320,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>4903</v>
@@ -6171,7 +6328,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>4832</v>
@@ -6179,7 +6336,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>4669</v>
@@ -6187,7 +6344,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>4537</v>
@@ -6195,7 +6352,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>4366</v>
@@ -6203,7 +6360,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4315</v>
@@ -6211,7 +6368,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>3791</v>
@@ -6219,7 +6376,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>3662</v>
@@ -6227,7 +6384,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3308</v>
@@ -6235,7 +6392,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3149</v>
@@ -6243,7 +6400,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>3039</v>
@@ -6251,7 +6408,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>3007</v>
@@ -6259,7 +6416,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3004</v>
@@ -6267,7 +6424,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>2921</v>
@@ -6275,7 +6432,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2693</v>
@@ -6283,7 +6440,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B63" s="3" t="n">
         <v>2563</v>
@@ -6291,7 +6448,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B64" s="3" t="n">
         <v>2477</v>
@@ -6299,7 +6456,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2411</v>
@@ -6307,7 +6464,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2350</v>
@@ -6315,7 +6472,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2111</v>
@@ -6323,7 +6480,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2042</v>
@@ -6331,7 +6488,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2027</v>
@@ -6339,7 +6496,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B70" s="3" t="n">
         <v>1872</v>
@@ -6347,7 +6504,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>1757</v>
@@ -6355,7 +6512,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="B72" s="3" t="n">
         <v>1731</v>
@@ -6363,7 +6520,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="B73" s="3" t="n">
         <v>1675</v>
@@ -6371,7 +6528,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1647</v>
@@ -6379,7 +6536,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1583</v>
@@ -6387,7 +6544,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1580</v>
@@ -6395,7 +6552,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1476</v>
@@ -6403,7 +6560,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="B78" s="3" t="n">
         <v>1388</v>
@@ -6411,7 +6568,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1235</v>
@@ -6419,7 +6576,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1157</v>
@@ -6427,7 +6584,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="B81" s="3" t="n">
         <v>1141</v>
@@ -6435,7 +6592,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1022</v>
@@ -6443,7 +6600,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>719</v>
@@ -6451,7 +6608,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>557</v>
@@ -6459,7 +6616,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>538</v>
@@ -6467,7 +6624,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B86" s="3" t="n">
         <v>363</v>
@@ -6495,7 +6652,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>
@@ -6506,51 +6663,51 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2017</v>
@@ -6559,10 +6716,10 @@
         <v>44561</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>44100</v>
@@ -6570,13 +6727,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2019</v>
@@ -6585,18 +6742,18 @@
         <v>45291</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2017</v>
@@ -6605,18 +6762,18 @@
         <v>44561</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>44561</v>
@@ -6624,13 +6781,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>44561</v>
@@ -6638,796 +6795,796 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="J52" s="4" t="n">
         <v>44101</v>
@@ -7435,391 +7592,391 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="729">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t xml:space="preserve">Spider name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population (2010?)</t>
   </si>
   <si>
     <t xml:space="preserve">Government</t>
@@ -2399,15 +2396,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -2417,7 +2414,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2451,3406 +2448,3391 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1826</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>2756</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>4626</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>19</v>
+      <c r="J5" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>42</v>
+      <c r="J7" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="H8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>42</v>
+      <c r="J9" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>42</v>
+      <c r="J10" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>42</v>
+      <c r="J12" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>78</v>
+      <c r="J14" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="0" t="s">
+      <c r="J15" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>88</v>
+      <c r="J16" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>88</v>
+      <c r="J17" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>88</v>
+      <c r="J18" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="0" t="s">
+      <c r="J19" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>88</v>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="D21" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>88</v>
+      <c r="J21" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>88</v>
+      <c r="J22" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>88</v>
+      <c r="J23" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="G24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="0" t="s">
+      <c r="J24" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="D25" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>19</v>
+      <c r="J25" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I26" s="0" t="s">
+      <c r="J26" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="D27" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>88</v>
+      <c r="J27" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="0" t="s">
+      <c r="D28" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="0" t="s">
+      <c r="J28" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="D29" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>88</v>
+      <c r="J29" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="0" t="s">
+      <c r="J30" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="0" t="s">
+      <c r="J31" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="0" t="s">
+      <c r="D32" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I32" s="0" t="s">
+      <c r="J32" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>88</v>
+      <c r="J33" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="D34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="0" t="s">
+      <c r="J34" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>88</v>
+      <c r="J35" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="0" t="s">
+      <c r="D36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>88</v>
+      <c r="J36" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="0" t="s">
+      <c r="J37" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>88</v>
+      <c r="J38" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="0" t="s">
+      <c r="D39" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>88</v>
+      <c r="J39" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="0" t="s">
+      <c r="D40" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="F40" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>33</v>
+      <c r="J40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="0" t="s">
+      <c r="D41" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="I41" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="J41" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="0" t="s">
+      <c r="D42" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I42" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I42" s="0" t="s">
+      <c r="J42" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="K42" s="0" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="D43" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="F43" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>88</v>
+      <c r="J43" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="0" t="s">
+      <c r="D44" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I44" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>225</v>
+      <c r="J44" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="D45" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="F45" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>88</v>
+      <c r="J45" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="D46" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="F46" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>78</v>
+      <c r="J46" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="0" t="s">
+      <c r="D47" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I47" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="F47" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>225</v>
+      <c r="J47" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="0" t="s">
+      <c r="D48" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="F48" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>88</v>
+      <c r="J48" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="0" t="s">
+      <c r="D49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="F49" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>88</v>
+      <c r="J49" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="0" t="s">
+      <c r="D50" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="F50" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" s="0" t="s">
+      <c r="J50" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="0" t="s">
+      <c r="D51" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="F51" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I51" s="0" t="s">
+      <c r="J51" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="0" t="s">
+      <c r="D52" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="E52" s="0" t="s">
+      <c r="F52" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="F52" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="0" t="s">
+      <c r="J52" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="0" t="s">
+      <c r="D53" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I53" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="F53" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I53" s="0" t="s">
+      <c r="J53" s="0" t="s">
         <v>272</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="0" t="s">
+      <c r="D54" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="0" t="s">
+      <c r="F54" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="F54" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="0" t="s">
+      <c r="J54" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="0" t="s">
+      <c r="D55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="0" t="s">
+      <c r="F55" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="F55" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>88</v>
+      <c r="J55" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="0" t="s">
+      <c r="D56" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="F56" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>165</v>
+      <c r="J56" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="0" t="s">
+      <c r="D57" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="F57" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57" s="0" t="s">
+      <c r="J57" s="0" t="s">
         <v>291</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="0" t="s">
+      <c r="D58" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="F58" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="G58" s="0" t="s">
+      <c r="I58" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="I58" s="0" t="s">
+      <c r="J58" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="0" t="s">
+      <c r="D59" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="F59" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>88</v>
+      <c r="J59" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="0" t="s">
+      <c r="D60" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="F60" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>88</v>
+      <c r="J60" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="0" t="s">
+      <c r="D61" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="F61" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="0" t="s">
+      <c r="J61" s="0" t="s">
         <v>312</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="0" t="s">
+      <c r="D62" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I62" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="F62" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I62" s="0" t="s">
+      <c r="J62" s="0" t="s">
         <v>317</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="0" t="s">
+      <c r="D63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>19</v>
+      <c r="J63" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="0" t="s">
+      <c r="D64" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>88</v>
+      <c r="J64" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="0" t="s">
+      <c r="D65" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>88</v>
+      <c r="J65" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="0" t="s">
+      <c r="D66" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>165</v>
+      <c r="J66" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="0" t="s">
+      <c r="D67" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I67" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>273</v>
+      <c r="J67" s="0" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="0" t="s">
+      <c r="D68" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="0" t="s">
+      <c r="J68" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="0" t="s">
+      <c r="D69" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="F69" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="F69" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>88</v>
+      <c r="J69" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="0" t="s">
+      <c r="D70" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="F70" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="F70" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I70" s="0" t="s">
+      <c r="J70" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="0" t="s">
+      <c r="D71" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I71" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I71" s="0" t="s">
+      <c r="J71" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C72" s="0" t="s">
+      <c r="D72" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>88</v>
+      <c r="J72" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="0" t="s">
+      <c r="D73" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="F73" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="F73" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I73" s="0" t="s">
+      <c r="J73" s="0" t="s">
         <v>357</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="0" t="s">
+      <c r="D74" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I74" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>219</v>
+      <c r="J74" s="0" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="0" t="s">
+      <c r="D75" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="E75" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="F75" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="F75" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I75" s="0" t="s">
+      <c r="J75" s="0" t="s">
         <v>366</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C76" s="0" t="s">
+      <c r="D76" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="F76" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="F76" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="K76" s="0" t="s">
-        <v>88</v>
+      <c r="J76" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" s="0" t="s">
+      <c r="D77" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="D77" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="J77" s="0" t="n">
-        <v>11229</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>88</v>
+      <c r="J77" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="0" t="s">
+      <c r="D78" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" s="0" t="s">
+      <c r="J78" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="0" t="s">
+      <c r="D79" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="K79" s="0" t="s">
-        <v>33</v>
+      <c r="J79" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="0" t="s">
+      <c r="D80" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I80" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="K80" s="0" t="s">
-        <v>225</v>
+      <c r="J80" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="0" t="s">
+      <c r="D81" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="K81" s="0" t="s">
-        <v>201</v>
+      <c r="J81" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="0" t="s">
+      <c r="D82" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I82" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I82" s="0" t="s">
+      <c r="J82" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="K82" s="0" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="0" t="s">
+      <c r="D83" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="K83" s="0" t="s">
-        <v>165</v>
+      <c r="J83" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84" s="0" t="s">
+      <c r="D84" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="F84" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="F84" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>88</v>
+      <c r="J84" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="0" t="s">
+      <c r="D85" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I85" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I85" s="0" t="s">
+      <c r="J85" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="K85" s="0" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" s="0" t="s">
+      <c r="D86" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="F86" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="F86" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I86" s="0" t="s">
+      <c r="J86" s="0" t="s">
         <v>406</v>
-      </c>
-      <c r="K86" s="0" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="0" t="s">
+      <c r="D87" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="D87" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>88</v>
+      <c r="J87" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="0" t="s">
+      <c r="D88" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="F88" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I88" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="F88" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="G88" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I88" s="0" t="s">
+      <c r="J88" s="0" t="s">
         <v>414</v>
-      </c>
-      <c r="K88" s="0" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" s="0" t="s">
+      <c r="D89" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I89" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="K89" s="0" t="s">
-        <v>88</v>
+      <c r="J89" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C90" s="0" t="s">
+      <c r="D90" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="F90" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F90" s="0" t="s">
+      <c r="G90" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="G90" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I90" s="0" t="s">
+      <c r="J90" s="0" t="s">
         <v>422</v>
-      </c>
-      <c r="J90" s="0" t="n">
-        <v>303587</v>
-      </c>
-      <c r="K90" s="0" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="0" t="s">
+      <c r="D91" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="K91" s="0" t="s">
-        <v>88</v>
+      <c r="J91" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="0" t="s">
+      <c r="D92" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="D92" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H92" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="K92" s="0" t="s">
-        <v>88</v>
+      <c r="J92" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" s="0" t="s">
+      <c r="D93" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="K93" s="0" t="s">
-        <v>88</v>
+      <c r="J93" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="0" t="s">
+      <c r="D94" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="D94" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I94" s="0" t="s">
+      <c r="J94" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="K94" s="0" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" s="0" t="s">
+      <c r="D95" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="D95" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I95" s="0" t="s">
+      <c r="J95" s="0" t="s">
         <v>439</v>
-      </c>
-      <c r="K95" s="0" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96" s="0" t="s">
+      <c r="D96" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I96" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="D96" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I96" s="0" t="s">
+      <c r="J96" s="0" t="s">
         <v>443</v>
-      </c>
-      <c r="K96" s="0" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="0" t="s">
+      <c r="D97" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="D97" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="K97" s="0" t="s">
-        <v>19</v>
+      <c r="J97" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="B98" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="0" t="s">
+      <c r="D98" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="E98" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="F98" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="F98" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I98" s="0" t="s">
+      <c r="J98" s="0" t="s">
         <v>452</v>
-      </c>
-      <c r="K98" s="0" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C99" s="0" t="s">
+      <c r="D99" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="D99" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I99" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="K99" s="0" t="s">
-        <v>88</v>
+      <c r="J99" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="0" t="s">
+      <c r="D100" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I100" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="K100" s="0" t="s">
-        <v>453</v>
+      <c r="J100" s="0" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C101" s="0" t="s">
+      <c r="D101" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="D101" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="K101" s="0" t="s">
-        <v>33</v>
+      <c r="J101" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C102" s="0" t="s">
+      <c r="D102" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I102" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="D102" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I102" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="K102" s="0" t="s">
-        <v>88</v>
+      <c r="J102" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C103" s="0" t="s">
+      <c r="D103" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="D103" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I103" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="K103" s="0" t="s">
-        <v>165</v>
+      <c r="J103" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104" s="0" t="s">
+      <c r="D104" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="D104" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H104" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I104" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>201</v>
+      <c r="J104" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C105" s="0" t="s">
+      <c r="D105" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I105" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="D105" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="K105" s="0" t="s">
-        <v>88</v>
+      <c r="J105" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" s="0" t="s">
+      <c r="D106" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="F106" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="F106" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I106" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>19</v>
+      <c r="J106" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="0" t="s">
+      <c r="D107" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="F107" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I107" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="F107" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I107" s="0" t="s">
+      <c r="J107" s="0" t="s">
         <v>482</v>
-      </c>
-      <c r="K107" s="0" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="0" t="s">
+      <c r="D108" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="D108" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="K108" s="0" t="s">
-        <v>313</v>
+      <c r="J108" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="0" t="s">
+      <c r="D109" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="D109" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F109" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I109" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>313</v>
+      <c r="J109" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C110" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="D110" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F110" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I110" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="K110" s="0" t="s">
-        <v>88</v>
+      <c r="J110" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="B111" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" s="0" t="s">
+      <c r="D111" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="D111" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="F111" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I111" s="0" t="s">
+      <c r="J111" s="0" t="s">
         <v>494</v>
-      </c>
-      <c r="K111" s="0" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C112" s="0" t="s">
+      <c r="D112" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I112" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="D112" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F112" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I112" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>88</v>
+      <c r="J112" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="B113" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" s="0" t="s">
+      <c r="D113" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I113" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="D113" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F113" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I113" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="K113" s="0" t="s">
-        <v>436</v>
+      <c r="J113" s="0" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" s="0" t="s">
+      <c r="D114" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I114" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="F114" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I114" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>88</v>
+      <c r="J114" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C115" s="0" t="s">
+      <c r="D115" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="F115" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I115" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="F115" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>88</v>
+      <c r="J115" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" s="0" t="s">
+      <c r="D116" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I116" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="D116" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F116" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I116" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="K116" s="0" t="s">
-        <v>436</v>
+      <c r="J116" s="0" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C117" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="B117" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C117" s="0" t="s">
+      <c r="D117" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="F117" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="F117" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H117" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I117" s="0" t="s">
+      <c r="J117" s="0" t="s">
         <v>515</v>
-      </c>
-      <c r="K117" s="0" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C118" s="0" t="s">
+      <c r="D118" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I118" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="D118" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>88</v>
+      <c r="J118" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="B119" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C119" s="0" t="s">
+      <c r="D119" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I119" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="D119" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="K119" s="0" t="s">
-        <v>88</v>
+      <c r="J119" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="B120" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C120" s="0" t="s">
+      <c r="D120" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="E120" s="1" t="s">
+      <c r="F120" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="F120" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>165</v>
+      <c r="J120" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="B121" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="0" t="s">
+      <c r="D121" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I121" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="D121" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="G121" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I121" s="0" t="s">
+      <c r="J121" s="0" t="s">
         <v>529</v>
-      </c>
-      <c r="K121" s="0" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="B122" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C122" s="0" t="s">
+      <c r="D122" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I122" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="D122" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I122" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="K122" s="0" t="s">
-        <v>258</v>
+      <c r="J122" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C123" s="0" t="s">
+      <c r="D123" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I123" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="D123" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I123" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="K123" s="0" t="s">
-        <v>88</v>
+      <c r="J123" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C124" s="0" t="s">
+      <c r="D124" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="F124" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I124" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="F124" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I124" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="K124" s="0" t="s">
-        <v>88</v>
+      <c r="J124" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C125" s="0" t="s">
+      <c r="D125" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I125" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="D125" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="K125" s="0" t="s">
-        <v>88</v>
+      <c r="J125" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="B126" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C126" s="0" t="s">
+      <c r="D126" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I126" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="D126" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I126" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="K126" s="0" t="s">
-        <v>88</v>
+      <c r="J126" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="B127" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C127" s="0" t="s">
+      <c r="D127" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I127" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="D127" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="F127" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I127" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="K127" s="0" t="s">
-        <v>88</v>
+      <c r="J127" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="B128" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C128" s="0" t="s">
+      <c r="D128" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I128" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="D128" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F128" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I128" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="K128" s="0" t="s">
-        <v>88</v>
+      <c r="J128" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="B129" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="0" t="s">
+      <c r="D129" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="D129" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F129" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I129" s="0" t="s">
+      <c r="J129" s="0" t="s">
         <v>555</v>
-      </c>
-      <c r="K129" s="0" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C130" s="0" t="s">
+      <c r="D130" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="F130" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I130" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="F130" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H130" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I130" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="K130" s="0" t="s">
-        <v>33</v>
+      <c r="J130" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="B131" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C131" s="0" t="s">
+      <c r="D131" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D131" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="E131" s="1" t="s">
+      <c r="F131" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I131" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="F131" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I131" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="K131" s="0" t="s">
-        <v>88</v>
+      <c r="J131" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -5936,7 +5918,7 @@
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5944,15 +5926,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>300286</v>
@@ -5960,7 +5942,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>40807</v>
@@ -5968,7 +5950,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>32345</v>
@@ -5976,7 +5958,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>32124</v>
@@ -5984,7 +5966,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>30473</v>
@@ -5992,7 +5974,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>28193</v>
@@ -6000,7 +5982,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>27720</v>
@@ -6008,7 +5990,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>27380</v>
@@ -6016,7 +5998,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>27087</v>
@@ -6024,7 +6006,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>25437</v>
@@ -6032,7 +6014,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>19744</v>
@@ -6040,7 +6022,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>19554</v>
@@ -6048,7 +6030,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>18181</v>
@@ -6056,7 +6038,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>16428</v>
@@ -6064,7 +6046,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>15945</v>
@@ -6072,7 +6054,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>15292</v>
@@ -6080,7 +6062,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>14885</v>
@@ -6088,7 +6070,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>14816</v>
@@ -6096,7 +6078,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>13850</v>
@@ -6104,7 +6086,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>13741</v>
@@ -6112,7 +6094,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>13628</v>
@@ -6120,7 +6102,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>13393</v>
@@ -6128,7 +6110,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>11986</v>
@@ -6136,7 +6118,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>11373</v>
@@ -6144,7 +6126,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>11101</v>
@@ -6152,7 +6134,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>11006</v>
@@ -6160,7 +6142,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>10236</v>
@@ -6168,7 +6150,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>9924</v>
@@ -6176,7 +6158,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>9598</v>
@@ -6184,7 +6166,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>9268</v>
@@ -6192,7 +6174,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>8799</v>
@@ -6200,7 +6182,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>8647</v>
@@ -6208,7 +6190,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>8282</v>
@@ -6216,7 +6198,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>8217</v>
@@ -6224,7 +6206,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>8216</v>
@@ -6232,7 +6214,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>8036</v>
@@ -6240,7 +6222,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>8026</v>
@@ -6248,7 +6230,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>7806</v>
@@ -6256,7 +6238,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>6925</v>
@@ -6264,7 +6246,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>6541</v>
@@ -6272,7 +6254,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>6298</v>
@@ -6280,7 +6262,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>6121</v>
@@ -6288,7 +6270,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>6023</v>
@@ -6296,7 +6278,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>5770</v>
@@ -6304,7 +6286,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>5424</v>
@@ -6312,7 +6294,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>5076</v>
@@ -6320,7 +6302,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>4903</v>
@@ -6328,7 +6310,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>4832</v>
@@ -6336,7 +6318,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>4669</v>
@@ -6344,7 +6326,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>4537</v>
@@ -6352,7 +6334,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>4366</v>
@@ -6360,7 +6342,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4315</v>
@@ -6368,7 +6350,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>3791</v>
@@ -6376,7 +6358,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>3662</v>
@@ -6384,7 +6366,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3308</v>
@@ -6392,7 +6374,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3149</v>
@@ -6400,7 +6382,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>3039</v>
@@ -6408,7 +6390,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>3007</v>
@@ -6416,7 +6398,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3004</v>
@@ -6424,7 +6406,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>2921</v>
@@ -6432,7 +6414,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2693</v>
@@ -6440,7 +6422,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B63" s="3" t="n">
         <v>2563</v>
@@ -6448,7 +6430,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64" s="3" t="n">
         <v>2477</v>
@@ -6456,7 +6438,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2411</v>
@@ -6464,7 +6446,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2350</v>
@@ -6472,7 +6454,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2111</v>
@@ -6480,7 +6462,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2042</v>
@@ -6488,7 +6470,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2027</v>
@@ -6496,7 +6478,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" s="3" t="n">
         <v>1872</v>
@@ -6504,7 +6486,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>1757</v>
@@ -6512,7 +6494,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B72" s="3" t="n">
         <v>1731</v>
@@ -6520,7 +6502,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B73" s="3" t="n">
         <v>1675</v>
@@ -6528,7 +6510,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1647</v>
@@ -6536,7 +6518,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1583</v>
@@ -6544,7 +6526,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1580</v>
@@ -6552,7 +6534,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1476</v>
@@ -6560,7 +6542,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B78" s="3" t="n">
         <v>1388</v>
@@ -6568,7 +6550,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1235</v>
@@ -6576,7 +6558,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1157</v>
@@ -6584,7 +6566,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B81" s="3" t="n">
         <v>1141</v>
@@ -6592,7 +6574,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1022</v>
@@ -6600,7 +6582,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>719</v>
@@ -6608,7 +6590,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>557</v>
@@ -6616,7 +6598,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>538</v>
@@ -6624,7 +6606,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B86" s="3" t="n">
         <v>363</v>
@@ -6652,7 +6634,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>
@@ -6663,51 +6645,51 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>626</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>627</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>631</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>634</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>635</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2017</v>
@@ -6716,10 +6698,10 @@
         <v>44561</v>
       </c>
       <c r="H2" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>637</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>44100</v>
@@ -6727,13 +6709,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>634</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2019</v>
@@ -6742,18 +6724,18 @@
         <v>45291</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>634</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2017</v>
@@ -6762,18 +6744,18 @@
         <v>44561</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>634</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>44561</v>
@@ -6781,13 +6763,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>634</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>44561</v>
@@ -6795,796 +6777,796 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>643</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>644</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>645</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>646</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>648</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>649</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>662</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>663</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>666</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>667</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>670</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>634</v>
-      </c>
       <c r="E29" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>634</v>
-      </c>
       <c r="E30" s="0" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>634</v>
-      </c>
       <c r="E31" s="0" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>634</v>
-      </c>
       <c r="E32" s="0" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>634</v>
-      </c>
       <c r="E33" s="0" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J52" s="4" t="n">
         <v>44101</v>
@@ -7592,391 +7574,391 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="E64" s="0" t="s">
         <v>716</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>717</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E74" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="729">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2399,12 +2399,12 @@
   <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="H59" activeCellId="0" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -4069,6 +4069,9 @@
       </c>
       <c r="F59" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>302</v>
@@ -5915,10 +5918,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -6634,7 +6637,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="729">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2398,13 +2398,13 @@
   </sheetPr>
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H59" activeCellId="0" sqref="H59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="H98" activeCellId="0" sqref="H98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -5012,6 +5012,9 @@
       </c>
       <c r="F97" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="I97" s="0" t="s">
         <v>446</v>
@@ -5917,11 +5920,11 @@
   </sheetPr>
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -6633,11 +6636,11 @@
   </sheetPr>
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -2398,13 +2398,13 @@
   </sheetPr>
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="H98" activeCellId="0" sqref="H98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -5920,11 +5920,11 @@
   </sheetPr>
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -6083,10 +6083,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="3" t="n">
         <v>13850</v>
       </c>
     </row>
@@ -6636,11 +6636,11 @@
   </sheetPr>
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="729">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2398,13 +2398,13 @@
   </sheetPr>
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="H107" activeCellId="0" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -4793,6 +4793,9 @@
       </c>
       <c r="G88" s="0" t="s">
         <v>49</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="I88" s="0" t="s">
         <v>413</v>
@@ -5921,10 +5924,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -6091,10 +6094,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="3" t="n">
         <v>13741</v>
       </c>
     </row>
@@ -6640,7 +6643,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="729">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2399,12 +2399,12 @@
   <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H107" activeCellId="0" sqref="H107"/>
+      <selection pane="bottomLeft" activeCell="H128" activeCellId="0" sqref="H128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -5263,6 +5263,9 @@
       </c>
       <c r="F107" s="0" t="s">
         <v>216</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="I107" s="0" t="s">
         <v>481</v>
@@ -5924,10 +5927,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -6102,10 +6105,10 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="3" t="n">
         <v>13628</v>
       </c>
     </row>
@@ -6643,7 +6646,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="729">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2399,12 +2399,12 @@
   <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H128" activeCellId="0" sqref="H128"/>
+      <selection pane="bottomLeft" activeCell="H121" activeCellId="0" sqref="H121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -5764,6 +5764,9 @@
       </c>
       <c r="G128" s="0" t="s">
         <v>49</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="I128" s="0" t="s">
         <v>551</v>
@@ -5927,10 +5930,10 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -6113,10 +6116,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="3" t="n">
         <v>13393</v>
       </c>
     </row>
@@ -6646,7 +6649,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>

--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Spider completion" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Population" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="A-C (pre-Scrapy)" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Home Rule Charters" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="734">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -54,6 +55,9 @@
     <t xml:space="preserve">Government</t>
   </si>
   <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALEPPO</t>
   </si>
   <si>
@@ -144,6 +148,9 @@
     <t xml:space="preserve">https://www.baldwinborough.org/</t>
   </si>
   <si>
+    <t xml:space="preserve">BROKEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">baldwin_b</t>
   </si>
   <si>
@@ -210,9 +217,6 @@
     <t xml:space="preserve">BETHEL PARK</t>
   </si>
   <si>
-    <t xml:space="preserve">MUNICIPALI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bethel Park Municipality</t>
   </si>
   <si>
@@ -1614,6 +1618,9 @@
     <t xml:space="preserve">board in 4 districts 1 supervisor each and 1 at-large, 1 tax collector, 3 auditors</t>
   </si>
   <si>
+    <t xml:space="preserve">2 supervisors will be elected from districts for the first time in 2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">WEST ELIZABETH</t>
   </si>
   <si>
@@ -2209,6 +2216,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://benavon.com/taxes-utilities/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ecode360.com/30854798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://whitehallboro.org/whitehall-borough-code/</t>
   </si>
 </sst>
 </file>
@@ -2396,15 +2412,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H121" activeCellId="0" sqref="H121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -2414,6 +2430,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="65.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2448,3406 +2465,3415 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5933,7 +5959,7 @@
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5941,15 +5967,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>300286</v>
@@ -5957,7 +5983,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>40807</v>
@@ -5965,7 +5991,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>32345</v>
@@ -5973,7 +5999,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>32124</v>
@@ -5981,7 +6007,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>30473</v>
@@ -5989,7 +6015,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>28193</v>
@@ -5997,7 +6023,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>27720</v>
@@ -6005,7 +6031,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>27380</v>
@@ -6013,7 +6039,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>27087</v>
@@ -6021,7 +6047,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>25437</v>
@@ -6029,7 +6055,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>19744</v>
@@ -6037,7 +6063,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>19554</v>
@@ -6045,7 +6071,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>18181</v>
@@ -6053,7 +6079,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>16428</v>
@@ -6061,7 +6087,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>15945</v>
@@ -6069,7 +6095,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>15292</v>
@@ -6077,7 +6103,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>14885</v>
@@ -6085,7 +6111,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>14816</v>
@@ -6093,7 +6119,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>13850</v>
@@ -6101,7 +6127,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>13741</v>
@@ -6109,7 +6135,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>13628</v>
@@ -6117,7 +6143,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>13393</v>
@@ -6125,7 +6151,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>11986</v>
@@ -6133,7 +6159,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>11373</v>
@@ -6141,7 +6167,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>11101</v>
@@ -6149,7 +6175,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>11006</v>
@@ -6157,7 +6183,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>10236</v>
@@ -6165,7 +6191,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>9924</v>
@@ -6173,7 +6199,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>9598</v>
@@ -6181,7 +6207,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>9268</v>
@@ -6189,7 +6215,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>8799</v>
@@ -6197,7 +6223,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>8647</v>
@@ -6205,7 +6231,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>8282</v>
@@ -6213,7 +6239,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>8217</v>
@@ -6221,7 +6247,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>8216</v>
@@ -6229,7 +6255,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>8036</v>
@@ -6237,7 +6263,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>8026</v>
@@ -6245,7 +6271,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>7806</v>
@@ -6253,7 +6279,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>6925</v>
@@ -6261,7 +6287,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>6541</v>
@@ -6269,7 +6295,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>6298</v>
@@ -6277,7 +6303,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>6121</v>
@@ -6285,7 +6311,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>6023</v>
@@ -6293,7 +6319,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>5770</v>
@@ -6301,7 +6327,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>5424</v>
@@ -6309,7 +6335,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>5076</v>
@@ -6317,7 +6343,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>4903</v>
@@ -6325,7 +6351,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>4832</v>
@@ -6333,7 +6359,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>4669</v>
@@ -6341,7 +6367,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>4537</v>
@@ -6349,7 +6375,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>4366</v>
@@ -6357,7 +6383,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4315</v>
@@ -6365,7 +6391,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>3791</v>
@@ -6373,7 +6399,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>3662</v>
@@ -6381,7 +6407,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3308</v>
@@ -6389,7 +6415,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3149</v>
@@ -6397,7 +6423,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>3039</v>
@@ -6405,7 +6431,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>3007</v>
@@ -6413,7 +6439,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3004</v>
@@ -6421,7 +6447,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>2921</v>
@@ -6429,7 +6455,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2693</v>
@@ -6437,7 +6463,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B63" s="3" t="n">
         <v>2563</v>
@@ -6445,7 +6471,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B64" s="3" t="n">
         <v>2477</v>
@@ -6453,7 +6479,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2411</v>
@@ -6461,7 +6487,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2350</v>
@@ -6469,7 +6495,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2111</v>
@@ -6477,7 +6503,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2042</v>
@@ -6485,7 +6511,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2027</v>
@@ -6493,7 +6519,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B70" s="3" t="n">
         <v>1872</v>
@@ -6501,7 +6527,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>1757</v>
@@ -6509,7 +6535,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B72" s="3" t="n">
         <v>1731</v>
@@ -6517,7 +6543,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B73" s="3" t="n">
         <v>1675</v>
@@ -6525,7 +6551,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1647</v>
@@ -6533,7 +6559,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1583</v>
@@ -6541,7 +6567,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1580</v>
@@ -6549,7 +6575,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1476</v>
@@ -6557,7 +6583,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B78" s="3" t="n">
         <v>1388</v>
@@ -6565,7 +6591,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1235</v>
@@ -6573,7 +6599,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1157</v>
@@ -6581,7 +6607,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B81" s="3" t="n">
         <v>1141</v>
@@ -6589,7 +6615,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1022</v>
@@ -6597,7 +6623,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>719</v>
@@ -6605,7 +6631,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>557</v>
@@ -6613,7 +6639,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>538</v>
@@ -6621,7 +6647,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B86" s="3" t="n">
         <v>363</v>
@@ -6649,7 +6675,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>
@@ -6660,51 +6686,51 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2017</v>
@@ -6713,10 +6739,10 @@
         <v>44561</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>44100</v>
@@ -6724,13 +6750,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2019</v>
@@ -6739,18 +6765,18 @@
         <v>45291</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2017</v>
@@ -6759,18 +6785,18 @@
         <v>44561</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>44561</v>
@@ -6778,13 +6804,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>44561</v>
@@ -6792,796 +6818,796 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="J52" s="4" t="n">
         <v>44101</v>
@@ -7589,391 +7615,391 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -7994,4 +8020,337 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.24"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>733</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Allegheny_Municipalities.xlsx
+++ b/Allegheny_Municipalities.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="733">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.baldwinborough.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROKEN</t>
   </si>
   <si>
     <t xml:space="preserve">baldwin_b</t>
@@ -2417,10 +2414,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
@@ -2605,30 +2602,30 @@
         <v>25</v>
       </c>
       <c r="H6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>25</v>
@@ -2637,59 +2634,59 @@
         <v>17</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>25</v>
@@ -2698,27 +2695,27 @@
         <v>17</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>25</v>
@@ -2727,59 +2724,59 @@
         <v>17</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>25</v>
@@ -2788,27 +2785,27 @@
         <v>17</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>25</v>
@@ -2817,27 +2814,27 @@
         <v>17</v>
       </c>
       <c r="I13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>25</v>
@@ -2846,27 +2843,27 @@
         <v>17</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>25</v>
@@ -2875,59 +2872,59 @@
         <v>17</v>
       </c>
       <c r="I15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>25</v>
@@ -2936,27 +2933,27 @@
         <v>17</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>25</v>
@@ -2965,27 +2962,27 @@
         <v>17</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>25</v>
@@ -2994,27 +2991,27 @@
         <v>17</v>
       </c>
       <c r="I19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>25</v>
@@ -3023,27 +3020,27 @@
         <v>17</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="D21" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>25</v>
@@ -3052,117 +3049,117 @@
         <v>17</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="J22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>133</v>
-      </c>
       <c r="G24" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>16</v>
@@ -3171,7 +3168,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>19</v>
@@ -3179,77 +3176,77 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="D27" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>16</v>
@@ -3258,56 +3255,56 @@
         <v>17</v>
       </c>
       <c r="I28" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="J28" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="D29" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>25</v>
@@ -3316,85 +3313,85 @@
         <v>17</v>
       </c>
       <c r="I30" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="F31" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I31" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I32" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="J32" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>25</v>
@@ -3403,189 +3400,189 @@
         <v>17</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="D34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I34" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="J34" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I37" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="J37" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="0" t="s">
+      <c r="D39" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="0" t="s">
+      <c r="D40" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>33</v>
@@ -3593,146 +3590,146 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="I41" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="J41" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I42" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I42" s="0" t="s">
+      <c r="J42" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="D43" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I44" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>232</v>
-      </c>
       <c r="J44" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>234</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="D46" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>25</v>
@@ -3741,452 +3738,452 @@
         <v>17</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I47" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="F47" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>244</v>
-      </c>
       <c r="J47" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="0" t="s">
+      <c r="D48" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>250</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>251</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>255</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I50" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="J50" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="0" t="s">
+      <c r="D51" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>25</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I51" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="J51" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>266</v>
-      </c>
       <c r="F52" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="J52" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I53" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="F53" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I53" s="0" t="s">
+      <c r="J53" s="0" t="s">
         <v>272</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>276</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I54" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="J54" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>279</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>280</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="0" t="s">
+      <c r="D56" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="0" t="s">
+      <c r="D57" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I57" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="J57" s="0" t="s">
         <v>291</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="F58" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="G58" s="0" t="s">
+      <c r="I58" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="I58" s="0" t="s">
+      <c r="J58" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="0" t="s">
+      <c r="D59" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="0" t="s">
+      <c r="D60" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I61" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="J61" s="0" t="s">
         <v>312</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I62" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="F62" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I62" s="0" t="s">
+      <c r="J62" s="0" t="s">
         <v>317</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>14</v>
@@ -4195,7 +4192,7 @@
         <v>16</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>19</v>
@@ -4203,13 +4200,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>322</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>323</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>14</v>
@@ -4218,379 +4215,379 @@
         <v>25</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>326</v>
-      </c>
       <c r="D65" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>329</v>
-      </c>
       <c r="D66" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I67" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>333</v>
-      </c>
       <c r="J67" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I68" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="J68" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="0" t="s">
+      <c r="D69" s="0" t="s">
         <v>339</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>340</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="0" t="s">
+      <c r="D70" s="0" t="s">
         <v>343</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>344</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I70" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="J70" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="0" t="s">
+      <c r="D71" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I71" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I71" s="0" t="s">
+      <c r="J71" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>352</v>
-      </c>
       <c r="D72" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C73" s="0" t="s">
+      <c r="D73" s="0" t="s">
         <v>355</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>356</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>25</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I73" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="J73" s="0" t="s">
         <v>357</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I74" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>361</v>
-      </c>
       <c r="J74" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="E75" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>365</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I75" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="J75" s="0" t="s">
         <v>366</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C76" s="0" t="s">
+      <c r="D76" s="0" t="s">
         <v>369</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>370</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>373</v>
-      </c>
       <c r="D77" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I78" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="J78" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>380</v>
-      </c>
       <c r="D79" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>33</v>
@@ -4598,62 +4595,62 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I80" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>384</v>
-      </c>
       <c r="J80" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>23</v>
@@ -4662,125 +4659,125 @@
         <v>16</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I82" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="J82" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>393</v>
-      </c>
       <c r="D83" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F83" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84" s="0" t="s">
+      <c r="D84" s="0" t="s">
         <v>396</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>397</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C85" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I85" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="I85" s="0" t="s">
+      <c r="J85" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="J85" s="0" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="D86" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>405</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I86" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="J86" s="0" t="s">
         <v>406</v>
-      </c>
-      <c r="J86" s="0" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>409</v>
-      </c>
       <c r="D87" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>25</v>
@@ -4789,128 +4786,128 @@
         <v>17</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="D88" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="D88" s="0" t="s">
-        <v>413</v>
-      </c>
       <c r="F88" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I88" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="J88" s="0" t="s">
         <v>414</v>
-      </c>
-      <c r="J88" s="0" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>417</v>
-      </c>
       <c r="D89" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C90" s="0" t="s">
+      <c r="D90" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="F90" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>421</v>
-      </c>
       <c r="G90" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I90" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="J90" s="0" t="s">
         <v>422</v>
-      </c>
-      <c r="J90" s="0" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>425</v>
-      </c>
       <c r="D91" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>428</v>
-      </c>
       <c r="D92" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>25</v>
@@ -4919,119 +4916,119 @@
         <v>17</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>431</v>
-      </c>
       <c r="D93" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>434</v>
-      </c>
       <c r="D94" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I94" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="J94" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="J94" s="0" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I95" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="J95" s="0" t="s">
         <v>439</v>
-      </c>
-      <c r="J95" s="0" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I96" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="D96" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I96" s="0" t="s">
+      <c r="J96" s="0" t="s">
         <v>443</v>
-      </c>
-      <c r="J96" s="0" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>16</v>
@@ -5040,7 +5037,7 @@
         <v>17</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>19</v>
@@ -5048,19 +5045,19 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C98" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D98" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="E98" s="0" t="s">
         <v>450</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>451</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>16</v>
@@ -5069,47 +5066,47 @@
         <v>17</v>
       </c>
       <c r="I98" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="J98" s="0" t="s">
         <v>452</v>
-      </c>
-      <c r="J98" s="0" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>455</v>
-      </c>
       <c r="D99" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F99" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F100" s="0" t="s">
         <v>16</v>
@@ -5118,21 +5115,21 @@
         <v>17</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>460</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>461</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>14</v>
@@ -5141,7 +5138,7 @@
         <v>25</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>33</v>
@@ -5149,13 +5146,13 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>463</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>464</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>14</v>
@@ -5164,21 +5161,21 @@
         <v>25</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>466</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>467</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>14</v>
@@ -5187,24 +5184,24 @@
         <v>25</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>16</v>
@@ -5213,21 +5210,21 @@
         <v>17</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>472</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>473</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>23</v>
@@ -5236,24 +5233,24 @@
         <v>25</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C106" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D106" s="0" t="s">
         <v>476</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>477</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>16</v>
@@ -5262,7 +5259,7 @@
         <v>17</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>19</v>
@@ -5270,517 +5267,517 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D107" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="D107" s="0" t="s">
-        <v>481</v>
-      </c>
       <c r="F107" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I107" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="J107" s="0" t="s">
         <v>482</v>
-      </c>
-      <c r="J107" s="0" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I111" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="J111" s="0" t="s">
         <v>494</v>
-      </c>
-      <c r="J111" s="0" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>497</v>
-      </c>
       <c r="D112" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="B113" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>500</v>
-      </c>
       <c r="D113" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>503</v>
-      </c>
       <c r="D114" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C115" s="0" t="s">
+      <c r="D115" s="0" t="s">
         <v>506</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>507</v>
       </c>
       <c r="F115" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>510</v>
-      </c>
       <c r="D116" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F116" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="D117" s="0" t="s">
         <v>513</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>514</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I117" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="J117" s="0" t="s">
         <v>515</v>
-      </c>
-      <c r="J117" s="0" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>518</v>
-      </c>
       <c r="D118" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="B119" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>521</v>
-      </c>
       <c r="D119" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="B120" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C120" s="0" t="s">
+      <c r="D120" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I121" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="D121" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="G121" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H121" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I121" s="0" t="s">
+      <c r="J121" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="J121" s="0" t="s">
+      <c r="K121" s="0" t="s">
         <v>530</v>
-      </c>
-      <c r="K121" s="0" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="B122" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>533</v>
-      </c>
       <c r="D122" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>536</v>
-      </c>
       <c r="D123" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C124" s="0" t="s">
+      <c r="D124" s="0" t="s">
         <v>539</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>540</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>543</v>
-      </c>
       <c r="D125" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="B126" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>546</v>
-      </c>
       <c r="D126" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="B127" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>549</v>
-      </c>
       <c r="D127" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>551</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>552</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>36</v>
@@ -5789,62 +5786,62 @@
         <v>25</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>17</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F129" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I129" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="J129" s="0" t="s">
         <v>556</v>
-      </c>
-      <c r="J129" s="0" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C130" s="0" t="s">
+      <c r="D130" s="0" t="s">
         <v>559</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>560</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J130" s="0" t="s">
         <v>33</v>
@@ -5852,28 +5849,28 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="B131" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C131" s="0" t="s">
+      <c r="D131" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>25</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -5959,7 +5956,7 @@
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.42"/>
@@ -5967,15 +5964,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>566</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>300286</v>
@@ -5983,7 +5980,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>40807</v>
@@ -5991,7 +5988,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>32345</v>
@@ -5999,7 +5996,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>32124</v>
@@ -6007,7 +6004,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>30473</v>
@@ -6015,7 +6012,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>28193</v>
@@ -6023,7 +6020,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>27720</v>
@@ -6031,7 +6028,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>27380</v>
@@ -6039,7 +6036,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>27087</v>
@@ -6047,7 +6044,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>25437</v>
@@ -6055,7 +6052,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>19744</v>
@@ -6063,7 +6060,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>19554</v>
@@ -6071,7 +6068,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>18181</v>
@@ -6079,7 +6076,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>16428</v>
@@ -6087,7 +6084,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>15945</v>
@@ -6095,7 +6092,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>15292</v>
@@ -6103,7 +6100,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>14885</v>
@@ -6111,7 +6108,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>14816</v>
@@ -6119,7 +6116,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>13850</v>
@@ -6127,7 +6124,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>13741</v>
@@ -6135,7 +6132,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>13628</v>
@@ -6143,7 +6140,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>13393</v>
@@ -6151,7 +6148,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>11986</v>
@@ -6159,7 +6156,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>11373</v>
@@ -6167,7 +6164,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>11101</v>
@@ -6175,7 +6172,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>11006</v>
@@ -6183,7 +6180,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>10236</v>
@@ -6191,7 +6188,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>9924</v>
@@ -6199,7 +6196,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>9598</v>
@@ -6207,7 +6204,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>9268</v>
@@ -6215,7 +6212,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>8799</v>
@@ -6223,7 +6220,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>8647</v>
@@ -6231,7 +6228,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>8282</v>
@@ -6239,7 +6236,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>8217</v>
@@ -6247,7 +6244,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>8216</v>
@@ -6255,7 +6252,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>8036</v>
@@ -6263,7 +6260,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>8026</v>
@@ -6271,7 +6268,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>7806</v>
@@ -6279,7 +6276,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>6925</v>
@@ -6287,7 +6284,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>6541</v>
@@ -6295,7 +6292,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>6298</v>
@@ -6303,7 +6300,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>6121</v>
@@ -6311,7 +6308,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>6023</v>
@@ -6319,7 +6316,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>5770</v>
@@ -6327,7 +6324,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>5424</v>
@@ -6335,7 +6332,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>5076</v>
@@ -6343,7 +6340,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>4903</v>
@@ -6351,7 +6348,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>4832</v>
@@ -6359,7 +6356,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>4669</v>
@@ -6367,7 +6364,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>4537</v>
@@ -6375,7 +6372,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>4366</v>
@@ -6383,7 +6380,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>4315</v>
@@ -6391,7 +6388,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>3791</v>
@@ -6399,7 +6396,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>3662</v>
@@ -6407,7 +6404,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>3308</v>
@@ -6415,7 +6412,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>3149</v>
@@ -6423,7 +6420,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>3039</v>
@@ -6431,7 +6428,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>3007</v>
@@ -6439,7 +6436,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>3004</v>
@@ -6447,7 +6444,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>2921</v>
@@ -6455,7 +6452,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>2693</v>
@@ -6463,7 +6460,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B63" s="3" t="n">
         <v>2563</v>
@@ -6479,7 +6476,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2411</v>
@@ -6487,7 +6484,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>2350</v>
@@ -6495,7 +6492,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2111</v>
@@ -6503,7 +6500,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>2042</v>
@@ -6511,7 +6508,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>2027</v>
@@ -6527,7 +6524,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>1757</v>
@@ -6535,7 +6532,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B72" s="3" t="n">
         <v>1731</v>
@@ -6543,7 +6540,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B73" s="3" t="n">
         <v>1675</v>
@@ -6551,7 +6548,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1647</v>
@@ -6559,7 +6556,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1583</v>
@@ -6567,7 +6564,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1580</v>
@@ -6575,7 +6572,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1476</v>
@@ -6583,7 +6580,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B78" s="3" t="n">
         <v>1388</v>
@@ -6591,7 +6588,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1235</v>
@@ -6599,7 +6596,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1157</v>
@@ -6607,7 +6604,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B81" s="3" t="n">
         <v>1141</v>
@@ -6615,7 +6612,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1022</v>
@@ -6623,7 +6620,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>719</v>
@@ -6631,7 +6628,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>557</v>
@@ -6639,7 +6636,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>538</v>
@@ -6647,7 +6644,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B86" s="3" t="n">
         <v>363</v>
@@ -6675,7 +6672,7 @@
       <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.16"/>
@@ -6686,34 +6683,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>627</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>628</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>631</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>632</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6724,13 +6721,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>2017</v>
@@ -6739,10 +6736,10 @@
         <v>44561</v>
       </c>
       <c r="H2" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>44100</v>
@@ -6750,13 +6747,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>635</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2019</v>
@@ -6765,18 +6762,18 @@
         <v>45291</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>635</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2017</v>
@@ -6785,18 +6782,18 @@
         <v>44561</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>635</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>44561</v>
@@ -6804,13 +6801,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>635</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>44561</v>
@@ -6818,19 +6815,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>644</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>645</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6841,172 +6838,172 @@
         <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>646</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>647</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>649</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>650</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7017,168 +7014,168 @@
         <v>21</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>663</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>664</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>667</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>668</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>671</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7189,95 +7186,95 @@
         <v>12</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>635</v>
-      </c>
       <c r="E29" s="0" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>635</v>
-      </c>
       <c r="E30" s="0" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>635</v>
-      </c>
       <c r="E31" s="0" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>635</v>
-      </c>
       <c r="E32" s="0" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>635</v>
-      </c>
       <c r="E33" s="0" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7288,326 +7285,326 @@
         <v>21</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>640</v>
+        <v>639